--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_10.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>85754.67935585615</v>
+        <v>77204.04607782562</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18158024.90737735</v>
+        <v>17594155.61720906</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16373502.16775414</v>
+        <v>15820853.8764602</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3635959.615583122</v>
+        <v>3833956.395555713</v>
       </c>
     </row>
     <row r="11">
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>143.2003641082727</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2090,10 +2092,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>143.2003641082727</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2144,7 +2146,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>138.9000023092308</v>
+        <v>117.0997133290437</v>
       </c>
       <c r="C21" t="n">
         <v>132.6551205385437</v>
@@ -2178,7 +2180,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V21" t="n">
-        <v>180.2319786803651</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W21" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X21" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2239,7 +2241,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
@@ -2248,16 +2250,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11662697514193</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2318,73 +2320,73 @@
         <v>390.1527797502169</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="D23" t="n">
+        <v>89.15668158090607</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>254.489886823085</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="E23" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>343.646568403991</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>12.64416469540813</v>
+        <v>63.04689425666362</v>
       </c>
       <c r="C24" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>115.7281862028015</v>
@@ -2409,13 +2411,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G24" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>157.7484451748619</v>
@@ -2457,10 +2459,10 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y24" t="n">
         <v>157.8079400398083</v>
@@ -2479,10 +2481,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.3569208884214</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2539,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>127.8710203300648</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="C26" t="n">
         <v>390.1527797502169</v>
@@ -2564,16 +2566,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>7.537471181140739</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>35.84715600543184</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2612,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2682,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T27" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>195.3773027531635</v>
@@ -2694,10 +2696,10 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>17.66596186741218</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X27" t="n">
-        <v>174.5627220424961</v>
+        <v>31.96618271690129</v>
       </c>
       <c r="Y27" t="n">
         <v>157.8079400398083</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>95.54331465629893</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>279.9701659793371</v>
@@ -2773,7 +2775,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>220.9263373332098</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
@@ -2789,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>343.646568403991</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2840,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>179.4404601920391</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2871,7 +2873,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C30" t="n">
-        <v>132.6551205385437</v>
+        <v>101.312687482012</v>
       </c>
       <c r="D30" t="n">
         <v>115.7281862028015</v>
@@ -2889,7 +2891,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I30" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,19 +2921,19 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W30" t="n">
-        <v>106.1331548337414</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X30" t="n">
         <v>174.5627220424961</v>
@@ -2947,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>23.90092288974135</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>54.68688746169084</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3032,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3047,7 +3049,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>96.2518857704997</v>
       </c>
       <c r="U32" t="n">
-        <v>82.31733398323249</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3108,13 +3110,13 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D33" t="n">
-        <v>67.32621008848376</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F33" t="n">
         <v>107.8702810193205</v>
@@ -3123,10 +3125,10 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H33" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,16 +3158,16 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>195.3773027531635</v>
+        <v>38.6973077781095</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W33" t="n">
         <v>211.1008365810345</v>
@@ -3193,16 +3195,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3241,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>103.2875137595525</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>85.0541059837922</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="D35" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>46.07723789946568</v>
+        <v>343.6465684039908</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3326,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3345,25 +3347,25 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C36" t="n">
-        <v>132.6551205385437</v>
+        <v>54.20292567151056</v>
       </c>
       <c r="D36" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>105.9202115588047</v>
       </c>
       <c r="H36" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3399,16 +3401,16 @@
         <v>157.7484451748619</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W36" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X36" t="n">
-        <v>69.59504029520305</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y36" t="n">
         <v>157.8079400398083</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>42.43741174507631</v>
       </c>
       <c r="U37" t="n">
         <v>279.9701659793371</v>
@@ -3487,10 +3489,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3509,19 +3511,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>166.0755005935655</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>123.6621491913813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3588,16 +3590,16 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E39" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>105.9202115588047</v>
       </c>
       <c r="H39" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>20.54110546596223</v>
@@ -3630,19 +3632,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>157.7484451748619</v>
+        <v>49.93706842589907</v>
       </c>
       <c r="U39" t="n">
-        <v>106.1331548337414</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X39" t="n">
         <v>174.5627220424961</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>64.98646288256806</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>49.76853801104792</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>7.537471181140739</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>35.84715600543184</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3797,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="Y41" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3873,16 +3875,16 @@
         <v>157.7484451748619</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V42" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>69.12146513934091</v>
+        <v>85.31857412307389</v>
       </c>
       <c r="Y42" t="n">
         <v>157.8079400398083</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
@@ -3913,10 +3915,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>113.610651365051</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3958,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>54.68688746169129</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3977,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>46.07723789946568</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3992,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4037,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
     </row>
     <row r="45">
@@ -4053,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4065,16 +4067,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4107,22 +4109,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>174.2363198753182</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="46">
@@ -4132,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>162.2547098760622</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4192,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4201,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>569.952771732027</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="C20" t="n">
-        <v>569.952771732027</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D20" t="n">
-        <v>569.952771732027</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E20" t="n">
-        <v>569.952771732027</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F20" t="n">
-        <v>425.3059392994284</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G20" t="n">
         <v>31.21222238001735</v>
@@ -5750,19 +5752,19 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J20" t="n">
+        <v>31.21222238001735</v>
+      </c>
+      <c r="K20" t="n">
         <v>40.13971065786654</v>
       </c>
-      <c r="K20" t="n">
+      <c r="L20" t="n">
         <v>426.3909626105813</v>
       </c>
-      <c r="L20" t="n">
+      <c r="M20" t="n">
+        <v>426.3909626105813</v>
+      </c>
+      <c r="N20" t="n">
         <v>812.642214563296</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1198.893466516011</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1198.893466516011</v>
       </c>
       <c r="O20" t="n">
         <v>1198.893466516011</v>
@@ -5792,10 +5794,10 @@
         <v>569.952771732027</v>
       </c>
       <c r="X20" t="n">
-        <v>569.952771732027</v>
+        <v>175.859054812616</v>
       </c>
       <c r="Y20" t="n">
-        <v>569.952771732027</v>
+        <v>175.859054812616</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>689.2944728867919</v>
+        <v>710.0430642665517</v>
       </c>
       <c r="C21" t="n">
-        <v>555.2994016357376</v>
+        <v>576.0479930154975</v>
       </c>
       <c r="D21" t="n">
-        <v>438.40224385513</v>
+        <v>459.1508352348899</v>
       </c>
       <c r="E21" t="n">
-        <v>317.909427847458</v>
+        <v>338.6580192272179</v>
       </c>
       <c r="F21" t="n">
-        <v>208.9495480299626</v>
+        <v>229.6981394097224</v>
       </c>
       <c r="G21" t="n">
-        <v>101.9594353443013</v>
+        <v>122.7080267240611</v>
       </c>
       <c r="H21" t="n">
-        <v>31.21222238001735</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="I21" t="n">
         <v>31.21222238001735</v>
@@ -5832,22 +5834,22 @@
         <v>224.0250799426506</v>
       </c>
       <c r="K21" t="n">
-        <v>224.0250799426506</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L21" t="n">
         <v>610.2763318953653</v>
       </c>
       <c r="M21" t="n">
-        <v>610.2763318953653</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="N21" t="n">
-        <v>758.5490957328082</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="O21" t="n">
-        <v>1144.800347685523</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="P21" t="n">
-        <v>1531.051599638238</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q21" t="n">
         <v>1531.051599638238</v>
@@ -5856,25 +5858,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S21" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T21" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="U21" t="n">
-        <v>1560.611119000868</v>
+        <v>1255.270298253395</v>
       </c>
       <c r="V21" t="n">
-        <v>1378.558615283327</v>
+        <v>1041.558771246429</v>
       </c>
       <c r="W21" t="n">
-        <v>1165.325447019656</v>
+        <v>828.3256029827575</v>
       </c>
       <c r="X21" t="n">
-        <v>988.9994651585486</v>
+        <v>828.3256029827575</v>
       </c>
       <c r="Y21" t="n">
-        <v>829.5975055223786</v>
+        <v>828.3256029827575</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>581.612140914903</v>
+        <v>1120.546072681154</v>
       </c>
       <c r="C22" t="n">
-        <v>581.612140914903</v>
+        <v>949.4527002428704</v>
       </c>
       <c r="D22" t="n">
-        <v>422.117496237813</v>
+        <v>789.9580555657803</v>
       </c>
       <c r="E22" t="n">
-        <v>261.2066811061325</v>
+        <v>629.0472404340999</v>
       </c>
       <c r="F22" t="n">
-        <v>261.2066811061325</v>
+        <v>464.4161145446911</v>
       </c>
       <c r="G22" t="n">
-        <v>93.95629003167588</v>
+        <v>297.1657234702345</v>
       </c>
       <c r="H22" t="n">
-        <v>93.95629003167588</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="I22" t="n">
         <v>31.21222238001735</v>
@@ -5911,7 +5913,7 @@
         <v>45.29477178522787</v>
       </c>
       <c r="K22" t="n">
-        <v>199.8470995074659</v>
+        <v>199.8470995074658</v>
       </c>
       <c r="L22" t="n">
         <v>459.7441997875264</v>
@@ -5944,16 +5946,16 @@
         <v>1560.611119000868</v>
       </c>
       <c r="V22" t="n">
-        <v>1286.72537394039</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="W22" t="n">
-        <v>1007.655709449264</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="X22" t="n">
-        <v>769.3118473089473</v>
+        <v>1532.981477686434</v>
       </c>
       <c r="Y22" t="n">
-        <v>769.3118473089473</v>
+        <v>1308.245779075198</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1166.517402081457</v>
+        <v>515.3631934215557</v>
       </c>
       <c r="C23" t="n">
-        <v>1166.517402081457</v>
+        <v>121.2694765021447</v>
       </c>
       <c r="D23" t="n">
-        <v>772.4236851620456</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E23" t="n">
-        <v>378.3299682426345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F23" t="n">
-        <v>378.3299682426345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G23" t="n">
         <v>31.21222238001735</v>
@@ -5993,22 +5995,22 @@
         <v>285.3976938477716</v>
       </c>
       <c r="L23" t="n">
-        <v>671.6489458004863</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="M23" t="n">
         <v>671.6489458004863</v>
       </c>
       <c r="N23" t="n">
-        <v>1057.900197753201</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="O23" t="n">
-        <v>1444.151449705916</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P23" t="n">
-        <v>1560.611119000868</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q23" t="n">
-        <v>1560.611119000868</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R23" t="n">
         <v>1560.611119000868</v>
@@ -6020,19 +6022,19 @@
         <v>1560.611119000868</v>
       </c>
       <c r="U23" t="n">
-        <v>1560.611119000868</v>
+        <v>1303.550627260378</v>
       </c>
       <c r="V23" t="n">
-        <v>1560.611119000868</v>
+        <v>1303.550627260378</v>
       </c>
       <c r="W23" t="n">
-        <v>1560.611119000868</v>
+        <v>1303.550627260378</v>
       </c>
       <c r="X23" t="n">
-        <v>1560.611119000868</v>
+        <v>1303.550627260378</v>
       </c>
       <c r="Y23" t="n">
-        <v>1560.611119000868</v>
+        <v>909.4569103409667</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>710.0430642665517</v>
+        <v>377.5620759857924</v>
       </c>
       <c r="C24" t="n">
-        <v>576.0479930154975</v>
+        <v>377.5620759857924</v>
       </c>
       <c r="D24" t="n">
-        <v>459.1508352348899</v>
+        <v>260.6649182051848</v>
       </c>
       <c r="E24" t="n">
-        <v>338.6580192272179</v>
+        <v>140.1721021975128</v>
       </c>
       <c r="F24" t="n">
-        <v>229.6981394097224</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G24" t="n">
-        <v>122.7080267240611</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H24" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I24" t="n">
         <v>31.21222238001735</v>
@@ -6069,49 +6071,49 @@
         <v>31.21222238001735</v>
       </c>
       <c r="K24" t="n">
-        <v>417.4634743327321</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="L24" t="n">
         <v>417.4634743327321</v>
       </c>
       <c r="M24" t="n">
-        <v>417.4634743327321</v>
+        <v>803.7147262854468</v>
       </c>
       <c r="N24" t="n">
-        <v>417.4634743327321</v>
+        <v>1144.800347685523</v>
       </c>
       <c r="O24" t="n">
-        <v>803.7147262854468</v>
+        <v>1144.800347685523</v>
       </c>
       <c r="P24" t="n">
-        <v>1189.965978238161</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="Q24" t="n">
-        <v>1539.810442922145</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="R24" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S24" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T24" t="n">
-        <v>1293.279245302185</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="U24" t="n">
-        <v>1095.928434440403</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="V24" t="n">
-        <v>882.216907433437</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="W24" t="n">
-        <v>882.216907433437</v>
+        <v>776.973749055457</v>
       </c>
       <c r="X24" t="n">
-        <v>882.216907433437</v>
+        <v>600.6477671943499</v>
       </c>
       <c r="Y24" t="n">
-        <v>722.814947797267</v>
+        <v>441.2458075581799</v>
       </c>
     </row>
     <row r="25">
@@ -6121,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1004.20002678548</v>
+        <v>683.7945669767096</v>
       </c>
       <c r="C25" t="n">
-        <v>833.1066543471966</v>
+        <v>512.7011945384261</v>
       </c>
       <c r="D25" t="n">
-        <v>673.6120096701065</v>
+        <v>512.7011945384261</v>
       </c>
       <c r="E25" t="n">
         <v>512.7011945384261</v>
@@ -6145,16 +6147,16 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J25" t="n">
-        <v>45.29477178522787</v>
+        <v>45.29477178522779</v>
       </c>
       <c r="K25" t="n">
-        <v>199.8470995074659</v>
+        <v>199.8470995074658</v>
       </c>
       <c r="L25" t="n">
-        <v>459.7441997875264</v>
+        <v>459.7441997875263</v>
       </c>
       <c r="M25" t="n">
-        <v>749.0082562280197</v>
+        <v>749.0082562280195</v>
       </c>
       <c r="N25" t="n">
         <v>1029.84703862227</v>
@@ -6163,34 +6165,34 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P25" t="n">
-        <v>1495.083089198357</v>
+        <v>1495.083089198356</v>
       </c>
       <c r="Q25" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="R25" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S25" t="n">
-        <v>1560.611119000868</v>
+        <v>1334.573834122306</v>
       </c>
       <c r="T25" t="n">
-        <v>1321.06237997757</v>
+        <v>1334.573834122306</v>
       </c>
       <c r="U25" t="n">
-        <v>1321.06237997757</v>
+        <v>1334.573834122306</v>
       </c>
       <c r="V25" t="n">
-        <v>1321.06237997757</v>
+        <v>1334.573834122306</v>
       </c>
       <c r="W25" t="n">
-        <v>1321.06237997757</v>
+        <v>1334.573834122306</v>
       </c>
       <c r="X25" t="n">
-        <v>1321.06237997757</v>
+        <v>1096.229971981989</v>
       </c>
       <c r="Y25" t="n">
-        <v>1191.899733179524</v>
+        <v>871.4942733707539</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1166.517402081457</v>
+        <v>432.9195465531059</v>
       </c>
       <c r="C26" t="n">
-        <v>772.4236851620456</v>
+        <v>38.82582963369487</v>
       </c>
       <c r="D26" t="n">
-        <v>772.4236851620456</v>
+        <v>38.82582963369487</v>
       </c>
       <c r="E26" t="n">
-        <v>772.4236851620456</v>
+        <v>38.82582963369487</v>
       </c>
       <c r="F26" t="n">
-        <v>378.3299682426345</v>
+        <v>38.82582963369487</v>
       </c>
       <c r="G26" t="n">
-        <v>378.3299682426345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H26" t="n">
-        <v>67.42147087035255</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I26" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J26" t="n">
-        <v>40.13971065786654</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K26" t="n">
-        <v>426.3909626105813</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L26" t="n">
-        <v>426.3909626105813</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="M26" t="n">
-        <v>426.3909626105813</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="N26" t="n">
-        <v>426.3909626105813</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="O26" t="n">
-        <v>812.642214563296</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="P26" t="n">
         <v>1198.893466516011</v>
@@ -6260,16 +6262,16 @@
         <v>1560.611119000868</v>
       </c>
       <c r="V26" t="n">
-        <v>1560.611119000868</v>
+        <v>1210.773564337348</v>
       </c>
       <c r="W26" t="n">
-        <v>1560.611119000868</v>
+        <v>827.0132634725169</v>
       </c>
       <c r="X26" t="n">
-        <v>1560.611119000868</v>
+        <v>827.0132634725169</v>
       </c>
       <c r="Y26" t="n">
-        <v>1166.517402081457</v>
+        <v>827.0132634725169</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6305,25 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J27" t="n">
-        <v>224.0250799426506</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K27" t="n">
-        <v>224.0250799426506</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="L27" t="n">
-        <v>610.2763318953653</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="M27" t="n">
-        <v>996.52758384808</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="N27" t="n">
-        <v>1382.778835800795</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="O27" t="n">
-        <v>1382.778835800795</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="P27" t="n">
-        <v>1531.051599638238</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q27" t="n">
         <v>1531.051599638238</v>
@@ -6330,19 +6332,19 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S27" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T27" t="n">
-        <v>1401.269255187876</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="U27" t="n">
-        <v>1203.918444326094</v>
+        <v>1255.270298253395</v>
       </c>
       <c r="V27" t="n">
-        <v>1203.918444326094</v>
+        <v>1255.270298253395</v>
       </c>
       <c r="W27" t="n">
-        <v>1186.074038399415</v>
+        <v>1042.037129989724</v>
       </c>
       <c r="X27" t="n">
         <v>1009.748056538308</v>
@@ -6358,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.21222238001735</v>
+        <v>298.8139934610271</v>
       </c>
       <c r="C28" t="n">
-        <v>31.21222238001735</v>
+        <v>127.7206210227436</v>
       </c>
       <c r="D28" t="n">
         <v>31.21222238001735</v>
@@ -6379,19 +6381,19 @@
         <v>31.21222238001735</v>
       </c>
       <c r="I28" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001724</v>
       </c>
       <c r="J28" t="n">
-        <v>45.29477178522787</v>
+        <v>45.29477178522779</v>
       </c>
       <c r="K28" t="n">
-        <v>199.8470995074659</v>
+        <v>199.8470995074658</v>
       </c>
       <c r="L28" t="n">
-        <v>459.7441997875264</v>
+        <v>459.7441997875263</v>
       </c>
       <c r="M28" t="n">
-        <v>749.0082562280197</v>
+        <v>749.0082562280196</v>
       </c>
       <c r="N28" t="n">
         <v>1029.84703862227</v>
@@ -6406,28 +6408,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R28" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S28" t="n">
-        <v>1288.946632556178</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T28" t="n">
-        <v>1049.39789353288</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U28" t="n">
-        <v>766.5997460790038</v>
+        <v>1277.812971546992</v>
       </c>
       <c r="V28" t="n">
-        <v>492.7140010185257</v>
+        <v>1003.927226486514</v>
       </c>
       <c r="W28" t="n">
-        <v>269.556084520334</v>
+        <v>724.8575619953881</v>
       </c>
       <c r="X28" t="n">
-        <v>31.21222238001735</v>
+        <v>486.5136998550715</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.21222238001735</v>
+        <v>486.5136998550715</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1166.517402081457</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="C29" t="n">
-        <v>772.4236851620456</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="D29" t="n">
-        <v>772.4236851620456</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="E29" t="n">
-        <v>378.3299682426345</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="F29" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="G29" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="H29" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="I29" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J29" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K29" t="n">
-        <v>401.8573631427234</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="L29" t="n">
-        <v>401.8573631427234</v>
+        <v>671.6489458004862</v>
       </c>
       <c r="M29" t="n">
-        <v>788.1086150954382</v>
+        <v>812.6422145632956</v>
       </c>
       <c r="N29" t="n">
-        <v>1174.359867048153</v>
+        <v>1198.89346651601</v>
       </c>
       <c r="O29" t="n">
-        <v>1560.611119000868</v>
+        <v>1198.89346651601</v>
       </c>
       <c r="P29" t="n">
-        <v>1560.611119000868</v>
+        <v>1198.89346651601</v>
       </c>
       <c r="Q29" t="n">
-        <v>1560.611119000868</v>
+        <v>1520.054473311302</v>
       </c>
       <c r="R29" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S29" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T29" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U29" t="n">
-        <v>1560.611119000868</v>
+        <v>946.0630680013369</v>
       </c>
       <c r="V29" t="n">
-        <v>1560.611119000868</v>
+        <v>596.2255133378176</v>
       </c>
       <c r="W29" t="n">
-        <v>1560.611119000868</v>
+        <v>212.4652124729861</v>
       </c>
       <c r="X29" t="n">
-        <v>1560.611119000868</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="Y29" t="n">
-        <v>1560.611119000868</v>
+        <v>31.21222238001734</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>710.0430642665517</v>
+        <v>657.6354495973659</v>
       </c>
       <c r="C30" t="n">
-        <v>576.0479930154975</v>
+        <v>555.2994016357376</v>
       </c>
       <c r="D30" t="n">
-        <v>459.1508352348899</v>
+        <v>438.40224385513</v>
       </c>
       <c r="E30" t="n">
-        <v>338.6580192272179</v>
+        <v>317.909427847458</v>
       </c>
       <c r="F30" t="n">
-        <v>229.6981394097224</v>
+        <v>208.9495480299626</v>
       </c>
       <c r="G30" t="n">
-        <v>122.7080267240611</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="H30" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="I30" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J30" t="n">
-        <v>52.01289845874021</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="K30" t="n">
-        <v>438.2641504114549</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="L30" t="n">
-        <v>824.5154023641696</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="M30" t="n">
-        <v>824.5154023641696</v>
+        <v>417.4634743327319</v>
       </c>
       <c r="N30" t="n">
-        <v>824.5154023641696</v>
+        <v>803.7147262854465</v>
       </c>
       <c r="O30" t="n">
-        <v>824.5154023641696</v>
+        <v>824.5154023641693</v>
       </c>
       <c r="P30" t="n">
         <v>1210.766654316884</v>
       </c>
       <c r="Q30" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="R30" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S30" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="T30" t="n">
-        <v>1293.279245302185</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="U30" t="n">
-        <v>1293.279245302185</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="V30" t="n">
-        <v>1293.279245302185</v>
+        <v>1346.899591993901</v>
       </c>
       <c r="W30" t="n">
-        <v>1186.074038399415</v>
+        <v>1133.66642373023</v>
       </c>
       <c r="X30" t="n">
-        <v>1009.748056538308</v>
+        <v>957.3404418691225</v>
       </c>
       <c r="Y30" t="n">
-        <v>850.3460969021384</v>
+        <v>797.9384822329525</v>
       </c>
     </row>
     <row r="31">
@@ -6595,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>214.8492134103814</v>
+        <v>854.5925715909368</v>
       </c>
       <c r="C31" t="n">
-        <v>214.8492134103814</v>
+        <v>683.4991991526533</v>
       </c>
       <c r="D31" t="n">
-        <v>55.35456873329144</v>
+        <v>524.0045544755633</v>
       </c>
       <c r="E31" t="n">
-        <v>55.35456873329144</v>
+        <v>363.0937393438827</v>
       </c>
       <c r="F31" t="n">
-        <v>31.21222238001735</v>
+        <v>198.4626134544739</v>
       </c>
       <c r="G31" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="H31" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="I31" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J31" t="n">
         <v>45.29477178522787</v>
       </c>
       <c r="K31" t="n">
-        <v>199.8470995074659</v>
+        <v>199.8470995074658</v>
       </c>
       <c r="L31" t="n">
         <v>459.7441997875264</v>
@@ -6637,34 +6639,34 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P31" t="n">
-        <v>1495.083089198357</v>
+        <v>1495.083089198356</v>
       </c>
       <c r="Q31" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="R31" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S31" t="n">
-        <v>1288.946632556178</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="T31" t="n">
-        <v>1288.946632556178</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="U31" t="n">
-        <v>1006.148485102302</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="V31" t="n">
-        <v>732.2627400418237</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="W31" t="n">
-        <v>453.193075550698</v>
+        <v>1505.371838736533</v>
       </c>
       <c r="X31" t="n">
-        <v>214.8492134103814</v>
+        <v>1267.027976596216</v>
       </c>
       <c r="Y31" t="n">
-        <v>214.8492134103814</v>
+        <v>1042.292277984981</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>342.1207197522994</v>
+        <v>822.5661993546371</v>
       </c>
       <c r="C32" t="n">
-        <v>342.1207197522994</v>
+        <v>822.5661993546371</v>
       </c>
       <c r="D32" t="n">
-        <v>342.1207197522994</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="E32" t="n">
-        <v>342.1207197522994</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="F32" t="n">
-        <v>342.1207197522994</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="G32" t="n">
-        <v>342.1207197522994</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="H32" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="I32" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J32" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K32" t="n">
-        <v>417.4634743327321</v>
+        <v>671.6489458004862</v>
       </c>
       <c r="L32" t="n">
-        <v>803.7147262854468</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="M32" t="n">
-        <v>812.642214563296</v>
+        <v>1133.803221358588</v>
       </c>
       <c r="N32" t="n">
-        <v>812.642214563296</v>
+        <v>1520.054473311302</v>
       </c>
       <c r="O32" t="n">
-        <v>812.642214563296</v>
+        <v>1520.054473311302</v>
       </c>
       <c r="P32" t="n">
-        <v>1198.893466516011</v>
+        <v>1520.054473311302</v>
       </c>
       <c r="Q32" t="n">
-        <v>1520.054473311303</v>
+        <v>1520.054473311302</v>
       </c>
       <c r="R32" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S32" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="T32" t="n">
-        <v>1203.123559741827</v>
+        <v>1463.386991959958</v>
       </c>
       <c r="U32" t="n">
-        <v>1119.974737536542</v>
+        <v>1206.326500219468</v>
       </c>
       <c r="V32" t="n">
-        <v>1119.974737536542</v>
+        <v>1206.326500219468</v>
       </c>
       <c r="W32" t="n">
-        <v>736.2144366717104</v>
+        <v>822.5661993546371</v>
       </c>
       <c r="X32" t="n">
-        <v>736.2144366717104</v>
+        <v>822.5661993546371</v>
       </c>
       <c r="Y32" t="n">
-        <v>342.1207197522994</v>
+        <v>822.5661993546371</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>406.6642920438682</v>
+        <v>618.5472599225079</v>
       </c>
       <c r="C33" t="n">
-        <v>406.6642920438682</v>
+        <v>484.5521886714537</v>
       </c>
       <c r="D33" t="n">
-        <v>338.6580192272179</v>
+        <v>367.6550308908461</v>
       </c>
       <c r="E33" t="n">
-        <v>338.6580192272179</v>
+        <v>247.1622148831741</v>
       </c>
       <c r="F33" t="n">
-        <v>229.6981394097224</v>
+        <v>138.2023350656787</v>
       </c>
       <c r="G33" t="n">
-        <v>122.7080267240611</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="H33" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="I33" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J33" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="K33" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="L33" t="n">
-        <v>417.4634743327321</v>
+        <v>372.2978437800932</v>
       </c>
       <c r="M33" t="n">
-        <v>803.7147262854468</v>
+        <v>758.5490957328078</v>
       </c>
       <c r="N33" t="n">
-        <v>1174.359867048153</v>
+        <v>1144.800347685522</v>
       </c>
       <c r="O33" t="n">
-        <v>1174.359867048153</v>
+        <v>1144.800347685522</v>
       </c>
       <c r="P33" t="n">
-        <v>1560.611119000868</v>
+        <v>1531.051599638237</v>
       </c>
       <c r="Q33" t="n">
-        <v>1560.611119000868</v>
+        <v>1531.051599638237</v>
       </c>
       <c r="R33" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S33" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="T33" t="n">
-        <v>1293.279245302185</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="U33" t="n">
-        <v>1095.928434440403</v>
+        <v>1521.522929326009</v>
       </c>
       <c r="V33" t="n">
-        <v>1095.928434440403</v>
+        <v>1307.811402319043</v>
       </c>
       <c r="W33" t="n">
-        <v>882.6952661767319</v>
+        <v>1094.578234055372</v>
       </c>
       <c r="X33" t="n">
-        <v>706.3692843156248</v>
+        <v>918.2522521942645</v>
       </c>
       <c r="Y33" t="n">
-        <v>546.9673246794548</v>
+        <v>758.8502925580946</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>526.4313653847996</v>
+        <v>1004.20002678548</v>
       </c>
       <c r="C34" t="n">
-        <v>355.3379929465161</v>
+        <v>833.1066543471966</v>
       </c>
       <c r="D34" t="n">
-        <v>195.8433482694261</v>
+        <v>673.6120096701065</v>
       </c>
       <c r="E34" t="n">
-        <v>195.8433482694261</v>
+        <v>512.7011945384261</v>
       </c>
       <c r="F34" t="n">
-        <v>31.21222238001735</v>
+        <v>348.0700686490173</v>
       </c>
       <c r="G34" t="n">
-        <v>31.21222238001735</v>
+        <v>180.8196775745607</v>
       </c>
       <c r="H34" t="n">
         <v>31.21222238001735</v>
@@ -6856,7 +6858,7 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J34" t="n">
-        <v>45.29477178522787</v>
+        <v>45.29477178522788</v>
       </c>
       <c r="K34" t="n">
         <v>199.8470995074659</v>
@@ -6865,7 +6867,7 @@
         <v>459.7441997875264</v>
       </c>
       <c r="M34" t="n">
-        <v>749.0082562280199</v>
+        <v>749.0082562280196</v>
       </c>
       <c r="N34" t="n">
         <v>1029.84703862227</v>
@@ -6874,34 +6876,34 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P34" t="n">
-        <v>1495.083089198357</v>
+        <v>1495.083089198356</v>
       </c>
       <c r="Q34" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="R34" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S34" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="T34" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="U34" t="n">
-        <v>1560.611119000868</v>
+        <v>1277.812971546991</v>
       </c>
       <c r="V34" t="n">
-        <v>1456.280297021522</v>
+        <v>1277.812971546991</v>
       </c>
       <c r="W34" t="n">
-        <v>1177.210632530396</v>
+        <v>1277.812971546991</v>
       </c>
       <c r="X34" t="n">
-        <v>938.8667703900793</v>
+        <v>1277.812971546991</v>
       </c>
       <c r="Y34" t="n">
-        <v>714.131071778844</v>
+        <v>1191.899733179524</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>782.7571012166252</v>
+        <v>772.4236851620452</v>
       </c>
       <c r="C35" t="n">
-        <v>782.7571012166252</v>
+        <v>378.3299682426343</v>
       </c>
       <c r="D35" t="n">
-        <v>388.6633842972142</v>
+        <v>378.3299682426343</v>
       </c>
       <c r="E35" t="n">
-        <v>388.6633842972142</v>
+        <v>378.3299682426343</v>
       </c>
       <c r="F35" t="n">
-        <v>342.1207197522994</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="G35" t="n">
-        <v>342.1207197522994</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="H35" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="I35" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J35" t="n">
         <v>285.3976938477716</v>
       </c>
       <c r="K35" t="n">
-        <v>285.3976938477716</v>
+        <v>671.6489458004862</v>
       </c>
       <c r="L35" t="n">
-        <v>285.3976938477716</v>
+        <v>747.5519694058729</v>
       </c>
       <c r="M35" t="n">
-        <v>671.6489458004863</v>
+        <v>747.5519694058729</v>
       </c>
       <c r="N35" t="n">
-        <v>1057.900197753201</v>
+        <v>1133.803221358588</v>
       </c>
       <c r="O35" t="n">
-        <v>1198.893466516011</v>
+        <v>1520.054473311302</v>
       </c>
       <c r="P35" t="n">
-        <v>1198.893466516011</v>
+        <v>1520.054473311302</v>
       </c>
       <c r="Q35" t="n">
-        <v>1520.054473311303</v>
+        <v>1520.054473311302</v>
       </c>
       <c r="R35" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S35" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="T35" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="U35" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="V35" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="W35" t="n">
-        <v>1176.850818136036</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="X35" t="n">
-        <v>782.7571012166252</v>
+        <v>1166.517402081456</v>
       </c>
       <c r="Y35" t="n">
-        <v>782.7571012166252</v>
+        <v>1166.517402081456</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>710.0430642665517</v>
+        <v>192.9527650369014</v>
       </c>
       <c r="C36" t="n">
-        <v>576.0479930154975</v>
+        <v>138.2023350656787</v>
       </c>
       <c r="D36" t="n">
-        <v>459.1508352348899</v>
+        <v>138.2023350656787</v>
       </c>
       <c r="E36" t="n">
-        <v>338.6580192272179</v>
+        <v>138.2023350656787</v>
       </c>
       <c r="F36" t="n">
-        <v>229.6981394097224</v>
+        <v>138.2023350656787</v>
       </c>
       <c r="G36" t="n">
-        <v>122.7080267240611</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="H36" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="I36" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J36" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="K36" t="n">
-        <v>417.4634743327321</v>
+        <v>417.4634743327319</v>
       </c>
       <c r="L36" t="n">
-        <v>803.7147262854468</v>
+        <v>803.7147262854465</v>
       </c>
       <c r="M36" t="n">
-        <v>803.7147262854468</v>
+        <v>803.7147262854465</v>
       </c>
       <c r="N36" t="n">
-        <v>803.7147262854468</v>
+        <v>1189.965978238161</v>
       </c>
       <c r="O36" t="n">
-        <v>1174.359867048153</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="P36" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="Q36" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="R36" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S36" t="n">
         <v>1452.621109115176</v>
       </c>
       <c r="T36" t="n">
-        <v>1293.279245302185</v>
+        <v>1293.279245302184</v>
       </c>
       <c r="U36" t="n">
-        <v>1293.279245302185</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V36" t="n">
-        <v>1293.279245302185</v>
+        <v>882.2169074334365</v>
       </c>
       <c r="W36" t="n">
-        <v>1080.046077038513</v>
+        <v>668.9837391697653</v>
       </c>
       <c r="X36" t="n">
-        <v>1009.748056538308</v>
+        <v>492.6577573086581</v>
       </c>
       <c r="Y36" t="n">
-        <v>850.3460969021384</v>
+        <v>333.2557976724881</v>
       </c>
     </row>
     <row r="37">
@@ -7069,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="C37" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="D37" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="E37" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="F37" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="G37" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="H37" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="I37" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J37" t="n">
         <v>45.29477178522787</v>
       </c>
       <c r="K37" t="n">
-        <v>199.8470995074659</v>
+        <v>199.8470995074657</v>
       </c>
       <c r="L37" t="n">
-        <v>459.7441997875264</v>
+        <v>459.7441997875262</v>
       </c>
       <c r="M37" t="n">
-        <v>749.0082562280197</v>
+        <v>749.0082562280195</v>
       </c>
       <c r="N37" t="n">
         <v>1029.84703862227</v>
@@ -7111,34 +7113,34 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P37" t="n">
-        <v>1495.083089198357</v>
+        <v>1495.083089198356</v>
       </c>
       <c r="Q37" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="R37" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S37" t="n">
-        <v>1288.946632556178</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="T37" t="n">
-        <v>1049.39789353288</v>
+        <v>1517.745046531093</v>
       </c>
       <c r="U37" t="n">
-        <v>766.5997460790038</v>
+        <v>1234.946899077217</v>
       </c>
       <c r="V37" t="n">
-        <v>492.7140010185257</v>
+        <v>961.0611540167392</v>
       </c>
       <c r="W37" t="n">
-        <v>213.6443365274001</v>
+        <v>681.9914895256136</v>
       </c>
       <c r="X37" t="n">
-        <v>31.21222238001735</v>
+        <v>443.647627385297</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.21222238001735</v>
+        <v>218.9119287740617</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>425.3059392994284</v>
+        <v>596.2255133378176</v>
       </c>
       <c r="C38" t="n">
-        <v>425.3059392994284</v>
+        <v>596.2255133378176</v>
       </c>
       <c r="D38" t="n">
-        <v>425.3059392994284</v>
+        <v>596.2255133378176</v>
       </c>
       <c r="E38" t="n">
-        <v>31.21222238001735</v>
+        <v>596.2255133378176</v>
       </c>
       <c r="F38" t="n">
-        <v>31.21222238001735</v>
+        <v>596.2255133378176</v>
       </c>
       <c r="G38" t="n">
-        <v>31.21222238001735</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="H38" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="I38" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J38" t="n">
         <v>285.3976938477716</v>
@@ -7178,46 +7180,46 @@
         <v>285.3976938477716</v>
       </c>
       <c r="L38" t="n">
-        <v>671.6489458004863</v>
+        <v>466.9476083001459</v>
       </c>
       <c r="M38" t="n">
-        <v>1057.900197753201</v>
+        <v>853.1988602528605</v>
       </c>
       <c r="N38" t="n">
-        <v>1444.151449705916</v>
+        <v>1239.450112205575</v>
       </c>
       <c r="O38" t="n">
-        <v>1520.054473311303</v>
+        <v>1239.450112205575</v>
       </c>
       <c r="P38" t="n">
-        <v>1520.054473311303</v>
+        <v>1239.450112205575</v>
       </c>
       <c r="Q38" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="R38" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S38" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T38" t="n">
-        <v>1338.404634947726</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U38" t="n">
-        <v>1338.404634947726</v>
+        <v>946.0630680013369</v>
       </c>
       <c r="V38" t="n">
-        <v>1338.404634947726</v>
+        <v>596.2255133378176</v>
       </c>
       <c r="W38" t="n">
-        <v>1338.404634947726</v>
+        <v>596.2255133378176</v>
       </c>
       <c r="X38" t="n">
-        <v>944.3109180283154</v>
+        <v>596.2255133378176</v>
       </c>
       <c r="Y38" t="n">
-        <v>819.3996562188394</v>
+        <v>596.2255133378176</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>710.0430642665517</v>
+        <v>409.8431554771004</v>
       </c>
       <c r="C39" t="n">
-        <v>576.0479930154975</v>
+        <v>275.8480842260461</v>
       </c>
       <c r="D39" t="n">
-        <v>459.1508352348899</v>
+        <v>158.9509264454385</v>
       </c>
       <c r="E39" t="n">
-        <v>338.6580192272179</v>
+        <v>158.9509264454385</v>
       </c>
       <c r="F39" t="n">
-        <v>229.6981394097224</v>
+        <v>158.9509264454385</v>
       </c>
       <c r="G39" t="n">
-        <v>122.7080267240611</v>
+        <v>51.96081375977717</v>
       </c>
       <c r="H39" t="n">
-        <v>51.96081375977718</v>
+        <v>51.96081375977717</v>
       </c>
       <c r="I39" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J39" t="n">
         <v>224.0250799426506</v>
       </c>
       <c r="K39" t="n">
-        <v>610.2763318953653</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="L39" t="n">
-        <v>996.52758384808</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="M39" t="n">
-        <v>996.52758384808</v>
+        <v>408.7046310488247</v>
       </c>
       <c r="N39" t="n">
-        <v>1174.359867048153</v>
+        <v>794.9558830015393</v>
       </c>
       <c r="O39" t="n">
-        <v>1174.359867048153</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="P39" t="n">
-        <v>1560.611119000868</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q39" t="n">
-        <v>1560.611119000868</v>
+        <v>1531.051599638237</v>
       </c>
       <c r="R39" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S39" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="T39" t="n">
-        <v>1293.279245302185</v>
+        <v>1510.169635742383</v>
       </c>
       <c r="U39" t="n">
-        <v>1186.074038399415</v>
+        <v>1312.818824880602</v>
       </c>
       <c r="V39" t="n">
-        <v>1186.074038399415</v>
+        <v>1099.107297873636</v>
       </c>
       <c r="W39" t="n">
-        <v>1186.074038399415</v>
+        <v>885.8741296099643</v>
       </c>
       <c r="X39" t="n">
-        <v>1009.748056538308</v>
+        <v>709.548147748857</v>
       </c>
       <c r="Y39" t="n">
-        <v>850.3460969021384</v>
+        <v>550.146188112687</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>81.48347289622737</v>
+        <v>855.6009473663541</v>
       </c>
       <c r="C40" t="n">
-        <v>81.48347289622737</v>
+        <v>855.6009473663541</v>
       </c>
       <c r="D40" t="n">
-        <v>81.48347289622737</v>
+        <v>789.9580555657803</v>
       </c>
       <c r="E40" t="n">
-        <v>81.48347289622737</v>
+        <v>629.0472404340999</v>
       </c>
       <c r="F40" t="n">
-        <v>31.21222238001735</v>
+        <v>464.4161145446911</v>
       </c>
       <c r="G40" t="n">
-        <v>31.21222238001735</v>
+        <v>297.1657234702345</v>
       </c>
       <c r="H40" t="n">
-        <v>31.21222238001735</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="I40" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J40" t="n">
         <v>45.29477178522787</v>
       </c>
       <c r="K40" t="n">
-        <v>199.8470995074659</v>
+        <v>199.8470995074658</v>
       </c>
       <c r="L40" t="n">
         <v>459.7441997875264</v>
@@ -7354,28 +7356,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R40" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S40" t="n">
-        <v>1288.946632556178</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="T40" t="n">
-        <v>1288.946632556178</v>
+        <v>1134.67061185748</v>
       </c>
       <c r="U40" t="n">
-        <v>1006.148485102302</v>
+        <v>1134.67061185748</v>
       </c>
       <c r="V40" t="n">
-        <v>732.2627400418237</v>
+        <v>1134.67061185748</v>
       </c>
       <c r="W40" t="n">
-        <v>732.2627400418237</v>
+        <v>855.6009473663541</v>
       </c>
       <c r="X40" t="n">
-        <v>493.9188779015071</v>
+        <v>855.6009473663541</v>
       </c>
       <c r="Y40" t="n">
-        <v>269.1831792902718</v>
+        <v>855.6009473663541</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>38.82582963369487</v>
+        <v>772.4236851620456</v>
       </c>
       <c r="C41" t="n">
-        <v>38.82582963369487</v>
+        <v>772.4236851620456</v>
       </c>
       <c r="D41" t="n">
-        <v>31.21222238001735</v>
+        <v>772.4236851620456</v>
       </c>
       <c r="E41" t="n">
-        <v>31.21222238001735</v>
+        <v>772.4236851620456</v>
       </c>
       <c r="F41" t="n">
-        <v>31.21222238001735</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="G41" t="n">
-        <v>31.21222238001735</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="H41" t="n">
         <v>31.21222238001735</v>
@@ -7412,25 +7414,25 @@
         <v>285.3976938477716</v>
       </c>
       <c r="K41" t="n">
-        <v>466.9476083001462</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="L41" t="n">
-        <v>853.1988602528609</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="M41" t="n">
-        <v>1239.450112205576</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="N41" t="n">
-        <v>1239.450112205576</v>
+        <v>812.642214563296</v>
       </c>
       <c r="O41" t="n">
-        <v>1239.450112205576</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="P41" t="n">
-        <v>1239.450112205576</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q41" t="n">
-        <v>1560.611119000868</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R41" t="n">
         <v>1560.611119000868</v>
@@ -7445,16 +7447,16 @@
         <v>1560.611119000868</v>
       </c>
       <c r="V41" t="n">
-        <v>1210.773564337348</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="W41" t="n">
-        <v>827.0132634725169</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="X41" t="n">
-        <v>432.9195465531059</v>
+        <v>1166.517402081457</v>
       </c>
       <c r="Y41" t="n">
-        <v>38.82582963369487</v>
+        <v>1166.517402081457</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7490,25 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J42" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K42" t="n">
-        <v>417.4634743327321</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L42" t="n">
-        <v>417.4634743327321</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M42" t="n">
-        <v>417.4634743327321</v>
+        <v>996.52758384808</v>
       </c>
       <c r="N42" t="n">
-        <v>417.4634743327321</v>
+        <v>996.52758384808</v>
       </c>
       <c r="O42" t="n">
-        <v>794.9558830015396</v>
+        <v>1144.800347685523</v>
       </c>
       <c r="P42" t="n">
-        <v>1181.207134954254</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="Q42" t="n">
         <v>1531.051599638238</v>
@@ -7521,13 +7523,13 @@
         <v>1293.279245302185</v>
       </c>
       <c r="U42" t="n">
-        <v>1293.279245302185</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V42" t="n">
-        <v>1079.567718295218</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="W42" t="n">
-        <v>1079.567718295218</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="X42" t="n">
         <v>1009.748056538308</v>
@@ -7543,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>949.4527002428704</v>
+        <v>854.5925715909368</v>
       </c>
       <c r="C43" t="n">
-        <v>949.4527002428704</v>
+        <v>683.4991991526533</v>
       </c>
       <c r="D43" t="n">
-        <v>789.9580555657803</v>
+        <v>524.0045544755633</v>
       </c>
       <c r="E43" t="n">
-        <v>629.0472404340999</v>
+        <v>363.0937393438827</v>
       </c>
       <c r="F43" t="n">
-        <v>464.4161145446911</v>
+        <v>198.4626134544739</v>
       </c>
       <c r="G43" t="n">
-        <v>297.1657234702345</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="H43" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="I43" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J43" t="n">
         <v>45.29477178522787</v>
       </c>
       <c r="K43" t="n">
-        <v>199.8470995074659</v>
+        <v>199.8470995074658</v>
       </c>
       <c r="L43" t="n">
         <v>459.7441997875264</v>
@@ -7591,28 +7593,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R43" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S43" t="n">
-        <v>1288.946632556178</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T43" t="n">
-        <v>1174.188398854106</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U43" t="n">
-        <v>1174.188398854106</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V43" t="n">
-        <v>1174.188398854106</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="W43" t="n">
-        <v>1174.188398854106</v>
+        <v>1505.371838736533</v>
       </c>
       <c r="X43" t="n">
-        <v>1174.188398854106</v>
+        <v>1267.027976596216</v>
       </c>
       <c r="Y43" t="n">
-        <v>949.4527002428704</v>
+        <v>1042.292277984981</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>782.7571012166252</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>1176.850818136036</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>1176.850818136036</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>782.7571012166252</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>338.6580192272179</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>338.6580192272179</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>338.6580192272179</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>338.6580192272179</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>229.6981394097224</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>122.7080267240611</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>996.52758384808</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>996.52758384808</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>1210.766654316884</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>1027.922161623753</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>814.6889933600817</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>638.3630114989745</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>478.9610518628045</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>687.89820081502</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>524.0045544755633</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>524.0045544755633</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>363.0937393438827</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>198.4626134544739</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>45.29477178522787</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>199.8470995074658</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>459.7441997875264</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>749.0082562280197</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1029.84703862227</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1289.407648948744</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1495.083089198357</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>1100.3336058203</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>1100.3336058203</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>1100.3336058203</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>875.5979072090644</v>
       </c>
     </row>
   </sheetData>
@@ -9398,22 +9400,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>82.34125626042834</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K20" t="n">
-        <v>479.289169423434</v>
+        <v>98.15405460033752</v>
       </c>
       <c r="L20" t="n">
         <v>485.6381778130617</v>
       </c>
       <c r="M20" t="n">
-        <v>483.4430042072623</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N20" t="n">
-        <v>92.91229075661933</v>
+        <v>483.0650705068362</v>
       </c>
       <c r="O20" t="n">
-        <v>93.18977562578313</v>
+        <v>483.342555376</v>
       </c>
       <c r="P20" t="n">
         <v>93.64936328088416</v>
@@ -9480,25 +9482,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L21" t="n">
-        <v>446.2673035610659</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>57.56428373841742</v>
+        <v>244.1092848557653</v>
       </c>
       <c r="N21" t="n">
-        <v>202.9638619164196</v>
+        <v>443.3461731439669</v>
       </c>
       <c r="O21" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>444.4124147530206</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
         <v>88.85829947169823</v>
@@ -9641,25 +9643,25 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L23" t="n">
-        <v>485.6381778130617</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M23" t="n">
-        <v>93.29022445704545</v>
+        <v>483.4430042072623</v>
       </c>
       <c r="N23" t="n">
-        <v>483.0650705068362</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O23" t="n">
-        <v>483.342555376</v>
+        <v>235.6072188205403</v>
       </c>
       <c r="P23" t="n">
-        <v>211.2853928717445</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q23" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R23" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,28 +9719,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K24" t="n">
-        <v>445.9785625348323</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M24" t="n">
-        <v>57.56428373841742</v>
+        <v>447.7170634886343</v>
       </c>
       <c r="N24" t="n">
-        <v>53.19339339374999</v>
+        <v>397.7243241008975</v>
       </c>
       <c r="O24" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
         <v>444.4124147530206</v>
       </c>
       <c r="Q24" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R24" t="n">
-        <v>80.01098302330718</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,25 +9874,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>82.34125626042834</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
         <v>479.289169423434</v>
       </c>
       <c r="L26" t="n">
-        <v>95.48539806284482</v>
+        <v>485.6381778130617</v>
       </c>
       <c r="M26" t="n">
-        <v>93.29022445704545</v>
+        <v>235.7076676518025</v>
       </c>
       <c r="N26" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O26" t="n">
-        <v>483.342555376</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P26" t="n">
-        <v>483.8021430311011</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q26" t="n">
         <v>414.4388617681339</v>
@@ -9951,28 +9953,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>446.2673035610659</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
         <v>447.7170634886343</v>
       </c>
       <c r="N27" t="n">
-        <v>443.3461731439669</v>
+        <v>434.4988566955759</v>
       </c>
       <c r="O27" t="n">
-        <v>57.751479</v>
+        <v>447.9042587502169</v>
       </c>
       <c r="P27" t="n">
-        <v>204.0301035254733</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>88.85829947169823</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
-        <v>463.5254207466576</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L29" t="n">
-        <v>95.48539806284482</v>
+        <v>485.6381778130616</v>
       </c>
       <c r="M29" t="n">
-        <v>483.4430042072623</v>
+        <v>235.7076676518024</v>
       </c>
       <c r="N29" t="n">
-        <v>483.0650705068362</v>
+        <v>483.0650705068361</v>
       </c>
       <c r="O29" t="n">
-        <v>483.342555376</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P29" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q29" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R29" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,25 +10190,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>72.38002271790189</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>445.9785625348323</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>446.2673035610659</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>57.56428373841742</v>
+        <v>447.7170634886342</v>
       </c>
       <c r="N30" t="n">
-        <v>53.19339339374999</v>
+        <v>443.3461731439668</v>
       </c>
       <c r="O30" t="n">
-        <v>57.751479</v>
+        <v>78.76226291790175</v>
       </c>
       <c r="P30" t="n">
-        <v>444.4124147530206</v>
+        <v>444.4124147530205</v>
       </c>
       <c r="Q30" t="n">
         <v>410.0708656603775</v>
@@ -10285,7 +10287,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P31" t="n">
-        <v>263.5328115890082</v>
+        <v>263.5328115890077</v>
       </c>
       <c r="Q31" t="n">
         <v>127.5494547533709</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>479.289169423434</v>
+        <v>479.2891694234339</v>
       </c>
       <c r="L32" t="n">
-        <v>485.6381778130617</v>
+        <v>485.6381778130616</v>
       </c>
       <c r="M32" t="n">
-        <v>102.3078893841658</v>
+        <v>169.9599452705675</v>
       </c>
       <c r="N32" t="n">
-        <v>92.91229075661933</v>
+        <v>483.0650705068361</v>
       </c>
       <c r="O32" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P32" t="n">
-        <v>483.8021430311011</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q32" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R32" t="n">
         <v>128.2784515920617</v>
@@ -10431,25 +10433,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>446.2673035610659</v>
+        <v>400.6454545179964</v>
       </c>
       <c r="M33" t="n">
-        <v>447.7170634886343</v>
+        <v>447.7170634886342</v>
       </c>
       <c r="N33" t="n">
-        <v>427.5824244671905</v>
+        <v>443.3461731439668</v>
       </c>
       <c r="O33" t="n">
         <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>444.4124147530206</v>
+        <v>444.4124147530205</v>
       </c>
       <c r="Q33" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10513,7 +10515,7 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M34" t="n">
-        <v>348.4508580952381</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N34" t="n">
         <v>335.3881832803894</v>
@@ -10586,25 +10588,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
-        <v>89.13638967321712</v>
+        <v>479.2891694234339</v>
       </c>
       <c r="L35" t="n">
-        <v>95.48539806284482</v>
+        <v>172.1551188763667</v>
       </c>
       <c r="M35" t="n">
-        <v>483.4430042072623</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N35" t="n">
-        <v>483.0650705068362</v>
+        <v>483.0650705068361</v>
       </c>
       <c r="O35" t="n">
-        <v>235.6072188205402</v>
+        <v>483.3425553759999</v>
       </c>
       <c r="P35" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q35" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R35" t="n">
         <v>128.2784515920617</v>
@@ -10665,22 +10667,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>445.9785625348323</v>
+        <v>445.9785625348322</v>
       </c>
       <c r="L36" t="n">
-        <v>446.2673035610659</v>
+        <v>446.2673035610658</v>
       </c>
       <c r="M36" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>53.19339339374999</v>
+        <v>443.3461731439668</v>
       </c>
       <c r="O36" t="n">
-        <v>432.1405100734405</v>
+        <v>432.1405100734404</v>
       </c>
       <c r="P36" t="n">
-        <v>444.4124147530206</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
         <v>56.69261850483872</v>
@@ -10744,7 +10746,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K37" t="n">
-        <v>208.3638319047618</v>
+        <v>208.3638319047616</v>
       </c>
       <c r="L37" t="n">
         <v>317.1506174091142</v>
@@ -10826,25 +10828,25 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L38" t="n">
-        <v>485.6381778130617</v>
+        <v>278.8691500349401</v>
       </c>
       <c r="M38" t="n">
-        <v>483.4430042072623</v>
+        <v>483.4430042072622</v>
       </c>
       <c r="N38" t="n">
-        <v>483.0650705068362</v>
+        <v>483.0650705068361</v>
       </c>
       <c r="O38" t="n">
-        <v>169.8594964393052</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P38" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q38" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,28 +10904,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>445.9785625348323</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>446.2673035610659</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>57.56428373841742</v>
+        <v>244.109284855765</v>
       </c>
       <c r="N39" t="n">
-        <v>232.8219622827125</v>
+        <v>443.3461731439668</v>
       </c>
       <c r="O39" t="n">
-        <v>57.751479</v>
+        <v>447.9042587502168</v>
       </c>
       <c r="P39" t="n">
-        <v>444.4124147530206</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,19 +11062,19 @@
         <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>272.5201416453126</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L41" t="n">
-        <v>485.6381778130617</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M41" t="n">
         <v>483.4430042072623</v>
       </c>
       <c r="N41" t="n">
-        <v>92.91229075661933</v>
+        <v>235.3297339513765</v>
       </c>
       <c r="O41" t="n">
-        <v>93.18977562578313</v>
+        <v>483.342555376</v>
       </c>
       <c r="P41" t="n">
         <v>93.64936328088416</v>
@@ -11081,7 +11083,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,13 +11138,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>445.9785625348323</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
@@ -11151,13 +11153,13 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>439.0569423018259</v>
+        <v>207.5219475226696</v>
       </c>
       <c r="P42" t="n">
         <v>444.4124147530206</v>
       </c>
       <c r="Q42" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
         <v>88.85829947169823</v>
@@ -11227,7 +11229,7 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N43" t="n">
-        <v>335.3881832803897</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O43" t="n">
         <v>318.2573327462026</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
         <v>89.13638967321712</v>
@@ -11303,22 +11305,22 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M44" t="n">
-        <v>93.29022445704545</v>
+        <v>483.4430042072623</v>
       </c>
       <c r="N44" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O44" t="n">
-        <v>93.18977562578313</v>
+        <v>235.6072188205403</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,10 +11375,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L45" t="n">
         <v>56.11452381084905</v>
@@ -11385,16 +11387,16 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>53.19339339374999</v>
+        <v>443.3461731439669</v>
       </c>
       <c r="O45" t="n">
         <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>270.6627364864445</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -11452,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>51.43314568295542</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K46" t="n">
-        <v>52.25036955906683</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L46" t="n">
-        <v>54.62829389390151</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M46" t="n">
-        <v>56.26494249878004</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N46" t="n">
-        <v>51.71264550841944</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O46" t="n">
-        <v>56.07489807299633</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P46" t="n">
-        <v>55.77984163990478</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q46" t="n">
-        <v>61.35952565992557</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>262.9186037595719</v>
       </c>
       <c r="C20" t="n">
         <v>406.0233447798626</v>
@@ -23978,10 +23980,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>273.6197438175766</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>14.48822151587922</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
         <v>307.7994123985592</v>
@@ -24032,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>6.484184102520089</v>
       </c>
       <c r="Y20" t="n">
         <v>396.9273063213908</v>
@@ -24045,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>21.80028898018708</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24066,7 +24068,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24096,25 +24098,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>157.7484451748619</v>
       </c>
       <c r="U21" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>31.34243305653143</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="22">
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>53.06595846157517</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,16 +24186,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24206,19 +24208,19 @@
         <v>15.96618811762767</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>15.87056502964566</v>
       </c>
       <c r="D23" t="n">
-        <v>10.26651085765315</v>
+        <v>311.262609026964</v>
       </c>
       <c r="E23" t="n">
-        <v>20.04403357805535</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>60.9944328621051</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
         <v>307.7994123985592</v>
@@ -24260,7 +24262,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -24272,7 +24274,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>6.774526571173908</v>
       </c>
     </row>
     <row r="24">
@@ -24282,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>126.2558376138226</v>
+        <v>75.85310805256714</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24297,13 +24299,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24333,7 +24335,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24345,10 +24347,10 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24367,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>45.17092955046746</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
         <v>279.9701659793371</v>
@@ -24427,10 +24429,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>94.61732129505818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>15.96618811762767</v>
       </c>
       <c r="C26" t="n">
         <v>15.87056502964566</v>
@@ -24452,16 +24454,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>26.66732817563241</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>397.1035300849554</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>49.64108905066573</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24500,16 +24502,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>6.774526571173908</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -24570,10 +24572,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24582,10 +24584,10 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W27" t="n">
-        <v>193.4348747136223</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>142.5965393255948</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>62.35638357402014</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>55.35263051300453</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24677,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>15.96618811762767</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>15.87056502964566</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>20.04403357805535</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>73.17353952185829</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
         <v>404.6410012660961</v>
@@ -24728,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>217.1965036606979</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -24759,7 +24761,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>31.34243305653172</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -24777,7 +24779,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24807,19 +24809,19 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U30" t="n">
         <v>195.3773027531635</v>
       </c>
       <c r="V30" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>104.9676817472931</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24835,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>139.0838917407733</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.1113806425979</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>221.5920803845235</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24920,7 +24922,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>10.26651085765326</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
@@ -24935,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>123.7325334421101</v>
       </c>
       <c r="U32" t="n">
-        <v>172.1725528398525</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -24983,7 +24985,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>6.774526571173908</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -24996,13 +24998,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>48.40197611431772</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -25011,10 +25013,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25044,16 +25046,16 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>156.6799949750539</v>
       </c>
       <c r="V33" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25081,16 +25083,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>115.1825854367171</v>
@@ -25129,19 +25131,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>167.8593738503208</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>137.4342356413307</v>
       </c>
     </row>
     <row r="35">
@@ -25151,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>15.96618811762778</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>15.87056502964577</v>
       </c>
       <c r="D35" t="n">
-        <v>10.26651085765315</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>370.7428700263836</v>
+        <v>73.17353952185852</v>
       </c>
       <c r="G35" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
         <v>85.48824505609757</v>
@@ -25214,10 +25216,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>6.484184102520089</v>
+        <v>6.484184102520203</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -25233,25 +25235,25 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>78.45219486703319</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25287,16 +25289,16 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>104.9676817472931</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>194.7158398879886</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>55.35263051300456</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>15.96618811762767</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
@@ -25397,19 +25399,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>20.04403357805535</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>404.6410012660961</v>
+        <v>238.5655006725306</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>6.484184102520089</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>273.2651571300095</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -25476,16 +25478,16 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25518,19 +25520,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>107.8113767489628</v>
       </c>
       <c r="U39" t="n">
-        <v>89.24414791942208</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>92.91323534775101</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>113.2162766194667</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25625,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>15.96618811762767</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>392.8818194267293</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>380.9729519204175</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>14.48822151587922</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -25685,16 +25687,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>6.484184102520089</v>
       </c>
       <c r="Y41" t="n">
-        <v>6.774526571173908</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25761,16 +25763,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W42" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X42" t="n">
-        <v>105.4412569031552</v>
+        <v>89.24414791942223</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>123.5426002680139</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
@@ -25846,10 +25848,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>221.5920803845231</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25865,10 +25867,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>359.9461068803969</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>10.26651085765315</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -25880,7 +25882,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -25925,13 +25927,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>6.774526571173908</v>
       </c>
     </row>
     <row r="45">
@@ -25941,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>132.6551205385437</v>
@@ -25953,16 +25955,16 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25995,22 +25997,22 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T45" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>211.5744117368965</v>
+        <v>37.33809186157828</v>
       </c>
       <c r="W45" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26020,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>7.127728837838504</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
@@ -26071,7 +26073,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
@@ -26080,7 +26082,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
@@ -26089,7 +26091,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>493223.4061259292</v>
+        <v>493223.4061259293</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>493223.4061259293</v>
+        <v>493223.4061259292</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>493223.4061259291</v>
+        <v>493223.406125929</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>493223.4061259293</v>
+        <v>493223.406125929</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>493223.4061259291</v>
+        <v>493223.4061259293</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>493223.4061259294</v>
+        <v>493223.4061259292</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>150357.0455461972</v>
+        <v>493223.4061259292</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24251.1363784189</v>
+        <v>24251.13637841891</v>
       </c>
       <c r="C2" t="n">
         <v>24251.1363784189</v>
@@ -26326,34 +26328,34 @@
         <v>24251.1363784189</v>
       </c>
       <c r="G2" t="n">
-        <v>24251.1363784189</v>
+        <v>24251.13637841889</v>
       </c>
       <c r="H2" t="n">
+        <v>79515.96550781335</v>
+      </c>
+      <c r="I2" t="n">
+        <v>79515.96550781335</v>
+      </c>
+      <c r="J2" t="n">
         <v>79515.96550781334</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>79515.96550781332</v>
+      </c>
+      <c r="L2" t="n">
+        <v>79515.96550781331</v>
+      </c>
+      <c r="M2" t="n">
+        <v>79515.96550781329</v>
+      </c>
+      <c r="N2" t="n">
         <v>79515.96550781334</v>
-      </c>
-      <c r="J2" t="n">
-        <v>79515.96550781332</v>
-      </c>
-      <c r="K2" t="n">
-        <v>79515.96550781329</v>
-      </c>
-      <c r="L2" t="n">
-        <v>79515.96550781334</v>
-      </c>
-      <c r="M2" t="n">
-        <v>79515.96550781331</v>
-      </c>
-      <c r="N2" t="n">
-        <v>79515.96550781332</v>
       </c>
       <c r="O2" t="n">
         <v>79515.96550781332</v>
       </c>
       <c r="P2" t="n">
-        <v>24251.1363784189</v>
+        <v>79515.96550781332</v>
       </c>
     </row>
     <row r="3">
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>92221.97316067776</v>
       </c>
     </row>
     <row r="4">
@@ -26448,7 +26450,7 @@
         <v>16465.93465315062</v>
       </c>
       <c r="M4" t="n">
-        <v>16465.93465315062</v>
+        <v>16465.93465315061</v>
       </c>
       <c r="N4" t="n">
         <v>16465.93465315062</v>
@@ -26457,7 +26459,7 @@
         <v>16465.93465315062</v>
       </c>
       <c r="P4" t="n">
-        <v>4850.227275683779</v>
+        <v>16465.93465315062</v>
       </c>
     </row>
     <row r="5">
@@ -26494,22 +26496,22 @@
         <v>23721.28900881319</v>
       </c>
       <c r="K5" t="n">
-        <v>23721.28900881319</v>
+        <v>23721.28900881318</v>
       </c>
       <c r="L5" t="n">
-        <v>23721.28900881319</v>
+        <v>23721.28900881318</v>
       </c>
       <c r="M5" t="n">
-        <v>23721.28900881319</v>
+        <v>23721.28900881318</v>
       </c>
       <c r="N5" t="n">
-        <v>23721.28900881319</v>
+        <v>23721.28900881318</v>
       </c>
       <c r="O5" t="n">
         <v>23721.28900881319</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>23721.28900881319</v>
       </c>
     </row>
     <row r="6">
@@ -26525,7 +26527,7 @@
         <v>-14226.69089726487</v>
       </c>
       <c r="D6" t="n">
-        <v>-14226.69089726487</v>
+        <v>-14226.69089726488</v>
       </c>
       <c r="E6" t="n">
         <v>19400.90910273512</v>
@@ -26537,31 +26539,31 @@
         <v>19400.90910273512</v>
       </c>
       <c r="H6" t="n">
-        <v>-65937.98950577676</v>
+        <v>-65937.98950577673</v>
       </c>
       <c r="I6" t="n">
+        <v>39328.74184584955</v>
+      </c>
+      <c r="J6" t="n">
         <v>39328.74184584954</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>39328.74184584952</v>
       </c>
-      <c r="K6" t="n">
-        <v>39328.74184584948</v>
-      </c>
       <c r="L6" t="n">
+        <v>39328.74184584951</v>
+      </c>
+      <c r="M6" t="n">
+        <v>39328.7418458495</v>
+      </c>
+      <c r="N6" t="n">
+        <v>39328.74184584954</v>
+      </c>
+      <c r="O6" t="n">
         <v>39328.74184584952</v>
       </c>
-      <c r="M6" t="n">
-        <v>39328.74184584951</v>
-      </c>
-      <c r="N6" t="n">
-        <v>39328.74184584952</v>
-      </c>
-      <c r="O6" t="n">
-        <v>39328.74184584951</v>
-      </c>
       <c r="P6" t="n">
-        <v>19400.90910273512</v>
+        <v>-52893.23131482824</v>
       </c>
     </row>
   </sheetData>
@@ -26814,22 +26816,22 @@
         <v>390.1527797502169</v>
       </c>
       <c r="K4" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="L4" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="M4" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="N4" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="O4" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
     </row>
   </sheetData>
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
     </row>
   </sheetData>
@@ -36118,22 +36120,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>9.017664927120396</v>
-      </c>
-      <c r="K20" t="n">
-        <v>390.1527797502169</v>
       </c>
       <c r="L20" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>186.5450011173479</v>
+      </c>
+      <c r="N21" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>149.7704685226696</v>
-      </c>
       <c r="O21" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
         <v>29.85810036629282</v>
@@ -36361,25 +36363,25 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
       <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>142.4174431947572</v>
+      </c>
+      <c r="P23" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="O23" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="P23" t="n">
-        <v>117.6360295908603</v>
-      </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36439,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>344.5309307071475</v>
       </c>
       <c r="O24" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="Q24" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>21.01078391790176</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,25 +36594,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>9.017664927120396</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K26" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>142.4174431947571</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>324.4050573689818</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="N27" t="n">
+        <v>381.3054633018259</v>
+      </c>
+      <c r="O27" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
       <c r="P27" t="n">
-        <v>149.7704685226696</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
         <v>29.85810036629282</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K29" t="n">
-        <v>374.3890310734405</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="M29" t="n">
-        <v>390.1527797502169</v>
+        <v>142.417443194757</v>
       </c>
       <c r="N29" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="O29" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>21.01078391790188</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>21.01078391790176</v>
       </c>
       <c r="P30" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="Q30" t="n">
         <v>353.3782471555388</v>
@@ -37005,7 +37007,7 @@
         <v>262.1824346732062</v>
       </c>
       <c r="P31" t="n">
-        <v>207.7529699491034</v>
+        <v>207.752969949103</v>
       </c>
       <c r="Q31" t="n">
         <v>66.18992909344529</v>
@@ -37066,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K32" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="L32" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="M32" t="n">
-        <v>9.017664927120396</v>
+        <v>76.66972081352203</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>40.9663087773382</v>
@@ -37151,25 +37153,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>390.1527797502169</v>
+        <v>344.5309307071473</v>
       </c>
       <c r="M33" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="N33" t="n">
-        <v>374.3890310734405</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37233,7 +37235,7 @@
         <v>262.5223235152127</v>
       </c>
       <c r="M34" t="n">
-        <v>292.1859155964581</v>
+        <v>292.1859155964578</v>
       </c>
       <c r="N34" t="n">
         <v>283.67553777197</v>
@@ -37306,25 +37308,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>76.66972081352191</v>
       </c>
       <c r="M35" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="O35" t="n">
-        <v>142.4174431947571</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>40.9663087773382</v>
@@ -37385,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="L36" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="O36" t="n">
-        <v>374.3890310734405</v>
+        <v>374.3890310734404</v>
       </c>
       <c r="P36" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37464,7 +37466,7 @@
         <v>14.22479737900053</v>
       </c>
       <c r="K37" t="n">
-        <v>156.1134623456949</v>
+        <v>156.1134623456948</v>
       </c>
       <c r="L37" t="n">
         <v>262.5223235152127</v>
@@ -37546,25 +37548,25 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>390.1527797502169</v>
+        <v>183.3837519720953</v>
       </c>
       <c r="M38" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="N38" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="O38" t="n">
-        <v>76.66972081352203</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37624,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>186.5450011173476</v>
       </c>
       <c r="N39" t="n">
-        <v>179.6285688889625</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="P39" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37719,7 +37721,7 @@
         <v>207.7529699491034</v>
       </c>
       <c r="Q40" t="n">
-        <v>66.18992909344536</v>
+        <v>66.18992909344529</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,19 +37782,19 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>183.3837519720955</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>142.4174431947572</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37801,7 +37803,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37871,13 +37873,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>381.3054633018259</v>
+        <v>149.7704685226696</v>
       </c>
       <c r="P42" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="Q42" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>29.85810036629282</v>
@@ -37947,7 +37949,7 @@
         <v>292.1859155964578</v>
       </c>
       <c r="N43" t="n">
-        <v>283.6755377719703</v>
+        <v>283.67553777197</v>
       </c>
       <c r="O43" t="n">
         <v>262.1824346732062</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -38023,22 +38025,22 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>142.4174431947572</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38105,16 +38107,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>216.4031014836408</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>14.22479737900053</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>262.5223235152127</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>292.1859155964578</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>283.67553777197</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>262.1824346732062</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>207.7529699491034</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>66.18992909344529</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>77204.04607782562</v>
+        <v>67376.48882284597</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17594155.61720906</v>
+        <v>17030286.32704075</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15820853.8764602</v>
+        <v>15268205.58516626</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3833956.395555713</v>
+        <v>4115767.551312122</v>
       </c>
     </row>
     <row r="11">
@@ -1858,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,16 +1897,16 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>341.6784094701709</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1922,19 +1922,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1973,25 +1973,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>91.05980095625276</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="19">
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>21.0791571163863</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>143.2003641082727</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>206.0155165430389</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,28 +2159,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>117.0997133290437</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D21" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F21" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>105.9202115588047</v>
       </c>
       <c r="H21" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U21" t="n">
         <v>195.3773027531635</v>
@@ -2225,10 +2225,10 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>98.96785963441103</v>
       </c>
     </row>
     <row r="22">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>228.2601210751807</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -2320,16 +2320,16 @@
         <v>390.1527797502169</v>
       </c>
       <c r="C23" t="n">
+        <v>343.646568403991</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="D23" t="n">
-        <v>89.15668158090607</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>63.04689425666362</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D24" t="n">
         <v>115.7281862028015</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2453,13 +2453,13 @@
         <v>157.7484451748619</v>
       </c>
       <c r="U24" t="n">
-        <v>195.3773027531635</v>
+        <v>127.9301699084462</v>
       </c>
       <c r="V24" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W24" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>174.5627220424961</v>
@@ -2478,16 +2478,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>154.8327836007247</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.577887163712</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.3569208884214</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="C26" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>7.537471181140739</v>
-      </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>215.3236495658965</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2639,7 +2639,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D27" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>119.2878878475953</v>
@@ -2648,13 +2648,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G27" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,25 +2684,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>106.9101097868343</v>
+        <v>65.02789765149893</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U27" t="n">
         <v>195.3773027531635</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W27" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X27" t="n">
-        <v>31.96618271690129</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y27" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2718,16 +2718,16 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>95.54331465629893</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>26.86590713897015</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2845,19 +2845,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>179.4404601920391</v>
+        <v>209.7183039501509</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C30" t="n">
-        <v>101.312687482012</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D30" t="n">
         <v>115.7281862028015</v>
@@ -2888,10 +2888,10 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H30" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,19 +2921,19 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>176.1728956683826</v>
       </c>
       <c r="V30" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>174.5627220424961</v>
@@ -2961,13 +2961,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>6.600615714007547</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>54.68688746169084</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -3031,25 +3031,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>387.4601690373238</v>
       </c>
       <c r="D32" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>96.2518857704997</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
     </row>
     <row r="33">
@@ -3125,7 +3125,7 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,22 +3158,22 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U33" t="n">
-        <v>38.6973077781095</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V33" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>174.5627220424961</v>
+        <v>105.8596795890361</v>
       </c>
       <c r="Y33" t="n">
         <v>157.8079400398083</v>
@@ -3189,13 +3189,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
@@ -3204,7 +3204,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>217.3394354707886</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>85.0541059837922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="F35" t="n">
-        <v>343.6465684039908</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>33.54748537087382</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3347,19 +3347,19 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C36" t="n">
-        <v>54.20292567151056</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
-        <v>105.9202115588047</v>
+        <v>3.066183145785636</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>157.7484451748619</v>
@@ -3404,7 +3404,7 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V36" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>211.1008365810345</v>
@@ -3426,19 +3426,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>42.43741174507631</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>159.0051401068121</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3517,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>166.0755005935655</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>219.9844192126098</v>
@@ -3565,13 +3565,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>313.3687246458798</v>
       </c>
     </row>
     <row r="39">
@@ -3587,22 +3587,22 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D39" t="n">
-        <v>115.7281862028015</v>
+        <v>15.09023863101106</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>49.93706842589907</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U39" t="n">
         <v>195.3773027531635</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>64.98646288256806</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
@@ -3678,10 +3678,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>29.46074400316621</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3723,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>390.1527797502169</v>
+        <v>179.4404601920395</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3751,13 +3751,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>35.84715600543184</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3830,13 +3830,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F42" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>105.9202115588047</v>
       </c>
       <c r="H42" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>20.54110546596223</v>
@@ -3878,13 +3878,13 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>51.6541842401388</v>
       </c>
       <c r="X42" t="n">
-        <v>85.31857412307389</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>157.8079400398083</v>
@@ -3906,19 +3906,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>50.93776964167971</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>54.68688746169129</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>46.07723789946568</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>341.6784094701709</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Y44" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,25 +4058,25 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>15.09023863101106</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4115,7 +4115,7 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V45" t="n">
-        <v>174.2363198753182</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W45" t="n">
         <v>211.1008365810345</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>162.2547098760622</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
@@ -4149,7 +4149,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
         <v>184.5278504388888</v>
@@ -4191,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>137.139642375264</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>361.3007174531585</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>747.5519694058733</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1133.803221358588</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1081.344143207237</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1081.344143207237</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>736.2144366717104</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>511.5571472368467</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>377.5620759857924</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>260.6649182051848</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>140.1721021975128</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>996.52758384808</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1079.567718295218</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>987.5881213697105</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>811.2621395086032</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>651.8601798724333</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>219.7546913498136</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>219.7546913498136</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>219.7546913498136</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>219.7546913498136</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>219.7546913498136</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>52.50430027535705</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>52.50430027535705</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>45.29477178522787</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>459.7441997875264</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>749.0082562280197</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1029.84703862227</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1289.407648948744</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1495.083089198357</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1235.789661652969</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1235.789661652969</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>961.9039165924912</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>682.8342521013656</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>444.4903899610489</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>219.7546913498136</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.21222238001735</v>
+        <v>1130.308153591121</v>
       </c>
       <c r="C20" t="n">
-        <v>31.21222238001735</v>
+        <v>1130.308153591121</v>
       </c>
       <c r="D20" t="n">
-        <v>31.21222238001735</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="E20" t="n">
-        <v>31.21222238001735</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="F20" t="n">
-        <v>31.21222238001735</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="G20" t="n">
-        <v>31.21222238001735</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="H20" t="n">
         <v>31.21222238001735</v>
@@ -5752,25 +5752,25 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J20" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K20" t="n">
-        <v>40.13971065786654</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L20" t="n">
-        <v>426.3909626105813</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="M20" t="n">
-        <v>426.3909626105813</v>
+        <v>1133.803221358588</v>
       </c>
       <c r="N20" t="n">
-        <v>812.642214563296</v>
+        <v>1133.803221358588</v>
       </c>
       <c r="O20" t="n">
-        <v>1198.893466516011</v>
+        <v>1133.803221358588</v>
       </c>
       <c r="P20" t="n">
-        <v>1198.893466516011</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="Q20" t="n">
         <v>1520.054473311303</v>
@@ -5782,22 +5782,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T20" t="n">
-        <v>1560.611119000868</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="U20" t="n">
-        <v>1303.550627260378</v>
+        <v>1130.308153591121</v>
       </c>
       <c r="V20" t="n">
-        <v>953.7130725968584</v>
+        <v>1130.308153591121</v>
       </c>
       <c r="W20" t="n">
-        <v>569.952771732027</v>
+        <v>1130.308153591121</v>
       </c>
       <c r="X20" t="n">
-        <v>175.859054812616</v>
+        <v>1130.308153591121</v>
       </c>
       <c r="Y20" t="n">
-        <v>175.859054812616</v>
+        <v>1130.308153591121</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>710.0430642665517</v>
+        <v>392.6902223244049</v>
       </c>
       <c r="C21" t="n">
-        <v>576.0479930154975</v>
+        <v>258.6951510733506</v>
       </c>
       <c r="D21" t="n">
-        <v>459.1508352348899</v>
+        <v>258.6951510733506</v>
       </c>
       <c r="E21" t="n">
-        <v>338.6580192272179</v>
+        <v>138.2023350656787</v>
       </c>
       <c r="F21" t="n">
-        <v>229.6981394097224</v>
+        <v>138.2023350656787</v>
       </c>
       <c r="G21" t="n">
-        <v>122.7080267240611</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H21" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I21" t="n">
         <v>31.21222238001735</v>
@@ -5840,10 +5840,10 @@
         <v>610.2763318953653</v>
       </c>
       <c r="M21" t="n">
+        <v>610.2763318953653</v>
+      </c>
+      <c r="N21" t="n">
         <v>794.9558830015396</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1181.207134954254</v>
       </c>
       <c r="O21" t="n">
         <v>1181.207134954254</v>
@@ -5861,22 +5861,22 @@
         <v>1452.621109115176</v>
       </c>
       <c r="T21" t="n">
-        <v>1452.621109115176</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U21" t="n">
-        <v>1255.270298253395</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V21" t="n">
-        <v>1041.558771246429</v>
+        <v>882.216907433437</v>
       </c>
       <c r="W21" t="n">
-        <v>828.3256029827575</v>
+        <v>668.9837391697657</v>
       </c>
       <c r="X21" t="n">
-        <v>828.3256029827575</v>
+        <v>492.6577573086585</v>
       </c>
       <c r="Y21" t="n">
-        <v>828.3256029827575</v>
+        <v>392.6902223244049</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1120.546072681154</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="C22" t="n">
-        <v>949.4527002428704</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D22" t="n">
-        <v>789.9580555657803</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E22" t="n">
-        <v>629.0472404340999</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F22" t="n">
-        <v>464.4161145446911</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G22" t="n">
-        <v>297.1657234702345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H22" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I22" t="n">
         <v>31.21222238001735</v>
@@ -5913,7 +5913,7 @@
         <v>45.29477178522787</v>
       </c>
       <c r="K22" t="n">
-        <v>199.8470995074658</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L22" t="n">
         <v>459.7441997875264</v>
@@ -5940,22 +5940,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T22" t="n">
-        <v>1560.611119000868</v>
+        <v>1330.045340137049</v>
       </c>
       <c r="U22" t="n">
-        <v>1560.611119000868</v>
+        <v>1047.247192683173</v>
       </c>
       <c r="V22" t="n">
-        <v>1560.611119000868</v>
+        <v>773.3614476226949</v>
       </c>
       <c r="W22" t="n">
-        <v>1560.611119000868</v>
+        <v>494.2917831315693</v>
       </c>
       <c r="X22" t="n">
-        <v>1532.981477686434</v>
+        <v>255.9479209912527</v>
       </c>
       <c r="Y22" t="n">
-        <v>1308.245779075198</v>
+        <v>31.21222238001735</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>515.3631934215557</v>
+        <v>1166.517402081457</v>
       </c>
       <c r="C23" t="n">
-        <v>121.2694765021447</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="D23" t="n">
-        <v>31.21222238001735</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="E23" t="n">
-        <v>31.21222238001735</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="F23" t="n">
         <v>31.21222238001735</v>
@@ -5992,16 +5992,16 @@
         <v>285.3976938477716</v>
       </c>
       <c r="K23" t="n">
-        <v>285.3976938477716</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L23" t="n">
-        <v>285.3976938477716</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="M23" t="n">
         <v>671.6489458004863</v>
       </c>
       <c r="N23" t="n">
-        <v>671.6489458004863</v>
+        <v>812.642214563296</v>
       </c>
       <c r="O23" t="n">
         <v>812.642214563296</v>
@@ -6022,19 +6022,19 @@
         <v>1560.611119000868</v>
       </c>
       <c r="U23" t="n">
-        <v>1303.550627260378</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V23" t="n">
-        <v>1303.550627260378</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="W23" t="n">
-        <v>1303.550627260378</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="X23" t="n">
-        <v>1303.550627260378</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Y23" t="n">
-        <v>909.4569103409667</v>
+        <v>1560.611119000868</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>377.5620759857924</v>
+        <v>582.3043602011305</v>
       </c>
       <c r="C24" t="n">
-        <v>377.5620759857924</v>
+        <v>448.3092889500763</v>
       </c>
       <c r="D24" t="n">
-        <v>260.6649182051848</v>
+        <v>331.4121311694687</v>
       </c>
       <c r="E24" t="n">
-        <v>140.1721021975128</v>
+        <v>210.9193151617967</v>
       </c>
       <c r="F24" t="n">
-        <v>31.21222238001735</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="G24" t="n">
-        <v>31.21222238001735</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="H24" t="n">
         <v>31.21222238001735</v>
@@ -6068,25 +6068,25 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J24" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K24" t="n">
-        <v>31.21222238001735</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L24" t="n">
-        <v>417.4634743327321</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M24" t="n">
-        <v>803.7147262854468</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="N24" t="n">
-        <v>1144.800347685523</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="O24" t="n">
-        <v>1144.800347685523</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="P24" t="n">
-        <v>1531.051599638238</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q24" t="n">
         <v>1531.051599638238</v>
@@ -6101,19 +6101,19 @@
         <v>1401.269255187876</v>
       </c>
       <c r="U24" t="n">
-        <v>1203.918444326094</v>
+        <v>1272.046861340961</v>
       </c>
       <c r="V24" t="n">
-        <v>990.2069173191283</v>
+        <v>1058.335334333994</v>
       </c>
       <c r="W24" t="n">
-        <v>776.973749055457</v>
+        <v>1058.335334333994</v>
       </c>
       <c r="X24" t="n">
-        <v>600.6477671943499</v>
+        <v>882.0093524728871</v>
       </c>
       <c r="Y24" t="n">
-        <v>441.2458075581799</v>
+        <v>722.6073928367172</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>683.7945669767096</v>
+        <v>665.377634892541</v>
       </c>
       <c r="C25" t="n">
-        <v>512.7011945384261</v>
+        <v>508.9808837806978</v>
       </c>
       <c r="D25" t="n">
-        <v>512.7011945384261</v>
+        <v>508.9808837806978</v>
       </c>
       <c r="E25" t="n">
-        <v>512.7011945384261</v>
+        <v>348.0700686490173</v>
       </c>
       <c r="F25" t="n">
         <v>348.0700686490173</v>
@@ -6147,16 +6147,16 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J25" t="n">
-        <v>45.29477178522779</v>
+        <v>45.29477178522787</v>
       </c>
       <c r="K25" t="n">
-        <v>199.8470995074658</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L25" t="n">
-        <v>459.7441997875263</v>
+        <v>459.7441997875264</v>
       </c>
       <c r="M25" t="n">
-        <v>749.0082562280195</v>
+        <v>749.0082562280197</v>
       </c>
       <c r="N25" t="n">
         <v>1029.84703862227</v>
@@ -6165,34 +6165,34 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P25" t="n">
-        <v>1495.083089198356</v>
+        <v>1495.083089198357</v>
       </c>
       <c r="Q25" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R25" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S25" t="n">
-        <v>1334.573834122306</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="T25" t="n">
-        <v>1334.573834122306</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="U25" t="n">
-        <v>1334.573834122306</v>
+        <v>1091.421203426902</v>
       </c>
       <c r="V25" t="n">
-        <v>1334.573834122306</v>
+        <v>1091.421203426902</v>
       </c>
       <c r="W25" t="n">
-        <v>1334.573834122306</v>
+        <v>1091.421203426902</v>
       </c>
       <c r="X25" t="n">
-        <v>1096.229971981989</v>
+        <v>853.0773412865854</v>
       </c>
       <c r="Y25" t="n">
-        <v>871.4942733707539</v>
+        <v>853.0773412865854</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>432.9195465531059</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="C26" t="n">
-        <v>38.82582963369487</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="D26" t="n">
-        <v>38.82582963369487</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="E26" t="n">
-        <v>38.82582963369487</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="F26" t="n">
-        <v>38.82582963369487</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="G26" t="n">
-        <v>31.21222238001735</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="H26" t="n">
         <v>31.21222238001735</v>
@@ -6229,19 +6229,19 @@
         <v>285.3976938477716</v>
       </c>
       <c r="K26" t="n">
-        <v>671.6489458004863</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="L26" t="n">
-        <v>1057.900197753201</v>
+        <v>812.642214563296</v>
       </c>
       <c r="M26" t="n">
-        <v>1198.893466516011</v>
+        <v>812.642214563296</v>
       </c>
       <c r="N26" t="n">
-        <v>1198.893466516011</v>
+        <v>812.642214563296</v>
       </c>
       <c r="O26" t="n">
-        <v>1198.893466516011</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P26" t="n">
         <v>1198.893466516011</v>
@@ -6259,19 +6259,19 @@
         <v>1560.611119000868</v>
       </c>
       <c r="U26" t="n">
-        <v>1560.611119000868</v>
+        <v>1303.550627260378</v>
       </c>
       <c r="V26" t="n">
-        <v>1210.773564337348</v>
+        <v>953.7130725968584</v>
       </c>
       <c r="W26" t="n">
-        <v>827.0132634725169</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="X26" t="n">
-        <v>827.0132634725169</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="Y26" t="n">
-        <v>827.0132634725169</v>
+        <v>736.2144366717104</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>710.0430642665517</v>
+        <v>394.6599894562391</v>
       </c>
       <c r="C27" t="n">
-        <v>576.0479930154975</v>
+        <v>260.6649182051848</v>
       </c>
       <c r="D27" t="n">
-        <v>459.1508352348899</v>
+        <v>260.6649182051848</v>
       </c>
       <c r="E27" t="n">
-        <v>338.6580192272179</v>
+        <v>140.1721021975128</v>
       </c>
       <c r="F27" t="n">
-        <v>229.6981394097224</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G27" t="n">
-        <v>122.7080267240611</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H27" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I27" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J27" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K27" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="L27" t="n">
-        <v>31.21222238001735</v>
+        <v>372.2978437800934</v>
       </c>
       <c r="M27" t="n">
-        <v>417.4634743327321</v>
+        <v>372.2978437800934</v>
       </c>
       <c r="N27" t="n">
-        <v>794.9558830015396</v>
+        <v>758.5490957328082</v>
       </c>
       <c r="O27" t="n">
-        <v>1181.207134954254</v>
+        <v>1144.800347685523</v>
       </c>
       <c r="P27" t="n">
-        <v>1181.207134954254</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="Q27" t="n">
         <v>1531.051599638238</v>
@@ -6332,25 +6332,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S27" t="n">
-        <v>1452.621109115176</v>
+        <v>1494.926373898343</v>
       </c>
       <c r="T27" t="n">
-        <v>1452.621109115176</v>
+        <v>1335.584510085352</v>
       </c>
       <c r="U27" t="n">
-        <v>1255.270298253395</v>
+        <v>1138.23369922357</v>
       </c>
       <c r="V27" t="n">
-        <v>1255.270298253395</v>
+        <v>924.5221722166042</v>
       </c>
       <c r="W27" t="n">
-        <v>1042.037129989724</v>
+        <v>711.2890039529329</v>
       </c>
       <c r="X27" t="n">
-        <v>1009.748056538308</v>
+        <v>534.9630220918257</v>
       </c>
       <c r="Y27" t="n">
-        <v>850.3460969021384</v>
+        <v>534.9630220918257</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>298.8139934610271</v>
+        <v>695.0979269138468</v>
       </c>
       <c r="C28" t="n">
-        <v>127.7206210227436</v>
+        <v>524.0045544755633</v>
       </c>
       <c r="D28" t="n">
-        <v>31.21222238001735</v>
+        <v>524.0045544755633</v>
       </c>
       <c r="E28" t="n">
-        <v>31.21222238001735</v>
+        <v>363.0937393438827</v>
       </c>
       <c r="F28" t="n">
-        <v>31.21222238001735</v>
+        <v>198.4626134544739</v>
       </c>
       <c r="G28" t="n">
         <v>31.21222238001735</v>
@@ -6381,19 +6381,19 @@
         <v>31.21222238001735</v>
       </c>
       <c r="I28" t="n">
-        <v>31.21222238001724</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J28" t="n">
-        <v>45.29477178522779</v>
+        <v>45.29477178522787</v>
       </c>
       <c r="K28" t="n">
-        <v>199.8470995074658</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L28" t="n">
-        <v>459.7441997875263</v>
+        <v>459.7441997875264</v>
       </c>
       <c r="M28" t="n">
-        <v>749.0082562280196</v>
+        <v>749.0082562280197</v>
       </c>
       <c r="N28" t="n">
         <v>1029.84703862227</v>
@@ -6408,28 +6408,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R28" t="n">
-        <v>1560.611119000868</v>
+        <v>1533.473839062514</v>
       </c>
       <c r="S28" t="n">
-        <v>1560.611119000868</v>
+        <v>1347.082070942424</v>
       </c>
       <c r="T28" t="n">
-        <v>1560.611119000868</v>
+        <v>1107.533331919126</v>
       </c>
       <c r="U28" t="n">
-        <v>1277.812971546992</v>
+        <v>1107.533331919126</v>
       </c>
       <c r="V28" t="n">
-        <v>1003.927226486514</v>
+        <v>1107.533331919126</v>
       </c>
       <c r="W28" t="n">
-        <v>724.8575619953881</v>
+        <v>1107.533331919126</v>
       </c>
       <c r="X28" t="n">
-        <v>486.5136998550715</v>
+        <v>1107.533331919126</v>
       </c>
       <c r="Y28" t="n">
-        <v>486.5136998550715</v>
+        <v>882.7976333078911</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.21222238001734</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="C29" t="n">
-        <v>31.21222238001734</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="D29" t="n">
-        <v>31.21222238001734</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="E29" t="n">
-        <v>31.21222238001734</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="F29" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G29" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H29" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I29" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J29" t="n">
         <v>285.3976938477716</v>
       </c>
       <c r="K29" t="n">
-        <v>285.3976938477716</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L29" t="n">
-        <v>671.6489458004862</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="M29" t="n">
-        <v>812.6422145632956</v>
+        <v>1444.151449705916</v>
       </c>
       <c r="N29" t="n">
-        <v>1198.89346651601</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="O29" t="n">
-        <v>1198.89346651601</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="P29" t="n">
-        <v>1198.89346651601</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="Q29" t="n">
-        <v>1520.054473311302</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R29" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S29" t="n">
         <v>1425.330043794968</v>
       </c>
       <c r="T29" t="n">
-        <v>1203.123559741827</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="U29" t="n">
-        <v>946.0630680013369</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="V29" t="n">
-        <v>596.2255133378176</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="W29" t="n">
-        <v>212.4652124729861</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="X29" t="n">
-        <v>31.21222238001734</v>
+        <v>1213.49337313825</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.21222238001734</v>
+        <v>1213.49337313825</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>657.6354495973659</v>
+        <v>639.2958513022677</v>
       </c>
       <c r="C30" t="n">
-        <v>555.2994016357376</v>
+        <v>505.3007800512135</v>
       </c>
       <c r="D30" t="n">
-        <v>438.40224385513</v>
+        <v>388.4036222706059</v>
       </c>
       <c r="E30" t="n">
-        <v>317.909427847458</v>
+        <v>267.9108062629339</v>
       </c>
       <c r="F30" t="n">
-        <v>208.9495480299626</v>
+        <v>158.9509264454385</v>
       </c>
       <c r="G30" t="n">
-        <v>101.9594353443013</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="H30" t="n">
-        <v>31.21222238001734</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="I30" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J30" t="n">
-        <v>31.21222238001734</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K30" t="n">
-        <v>31.21222238001734</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="L30" t="n">
-        <v>31.21222238001734</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="M30" t="n">
-        <v>417.4634743327319</v>
+        <v>996.52758384808</v>
       </c>
       <c r="N30" t="n">
-        <v>803.7147262854465</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="O30" t="n">
-        <v>824.5154023641693</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="P30" t="n">
-        <v>1210.766654316884</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q30" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R30" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S30" t="n">
-        <v>1560.611119000867</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T30" t="n">
-        <v>1560.611119000867</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U30" t="n">
-        <v>1560.611119000867</v>
+        <v>1115.326825435131</v>
       </c>
       <c r="V30" t="n">
-        <v>1346.899591993901</v>
+        <v>1115.326825435131</v>
       </c>
       <c r="W30" t="n">
-        <v>1133.66642373023</v>
+        <v>1115.326825435131</v>
       </c>
       <c r="X30" t="n">
-        <v>957.3404418691225</v>
+        <v>939.0008435740243</v>
       </c>
       <c r="Y30" t="n">
-        <v>797.9384822329525</v>
+        <v>779.5988839378543</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>854.5925715909368</v>
+        <v>672.3185098216147</v>
       </c>
       <c r="C31" t="n">
-        <v>683.4991991526533</v>
+        <v>501.2251373833312</v>
       </c>
       <c r="D31" t="n">
-        <v>524.0045544755633</v>
+        <v>341.7304927062412</v>
       </c>
       <c r="E31" t="n">
-        <v>363.0937393438827</v>
+        <v>180.8196775745607</v>
       </c>
       <c r="F31" t="n">
-        <v>198.4626134544739</v>
+        <v>180.8196775745607</v>
       </c>
       <c r="G31" t="n">
-        <v>31.21222238001734</v>
+        <v>180.8196775745607</v>
       </c>
       <c r="H31" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I31" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J31" t="n">
         <v>45.29477178522787</v>
       </c>
       <c r="K31" t="n">
-        <v>199.8470995074658</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L31" t="n">
         <v>459.7441997875264</v>
@@ -6639,34 +6639,34 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P31" t="n">
-        <v>1495.083089198356</v>
+        <v>1495.083089198357</v>
       </c>
       <c r="Q31" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R31" t="n">
-        <v>1560.611119000867</v>
+        <v>1553.94383040086</v>
       </c>
       <c r="S31" t="n">
-        <v>1560.611119000867</v>
+        <v>1367.55206228077</v>
       </c>
       <c r="T31" t="n">
-        <v>1560.611119000867</v>
+        <v>1367.55206228077</v>
       </c>
       <c r="U31" t="n">
-        <v>1560.611119000867</v>
+        <v>1084.753914826894</v>
       </c>
       <c r="V31" t="n">
-        <v>1560.611119000867</v>
+        <v>1084.753914826894</v>
       </c>
       <c r="W31" t="n">
-        <v>1505.371838736533</v>
+        <v>1084.753914826894</v>
       </c>
       <c r="X31" t="n">
-        <v>1267.027976596216</v>
+        <v>1084.753914826894</v>
       </c>
       <c r="Y31" t="n">
-        <v>1042.292277984981</v>
+        <v>860.0182162156591</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>822.5661993546371</v>
+        <v>816.6798474179373</v>
       </c>
       <c r="C32" t="n">
-        <v>822.5661993546371</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="D32" t="n">
-        <v>428.4724824352262</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="E32" t="n">
-        <v>428.4724824352262</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="F32" t="n">
-        <v>428.4724824352262</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G32" t="n">
-        <v>428.4724824352262</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H32" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I32" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J32" t="n">
-        <v>285.3976938477716</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K32" t="n">
-        <v>671.6489458004862</v>
+        <v>361.3007174531585</v>
       </c>
       <c r="L32" t="n">
-        <v>1057.900197753201</v>
+        <v>747.5519694058733</v>
       </c>
       <c r="M32" t="n">
         <v>1133.803221358588</v>
       </c>
       <c r="N32" t="n">
-        <v>1520.054473311302</v>
+        <v>1133.803221358588</v>
       </c>
       <c r="O32" t="n">
-        <v>1520.054473311302</v>
+        <v>1133.803221358588</v>
       </c>
       <c r="P32" t="n">
-        <v>1520.054473311302</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="Q32" t="n">
-        <v>1520.054473311302</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R32" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S32" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T32" t="n">
-        <v>1463.386991959958</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U32" t="n">
-        <v>1206.326500219468</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V32" t="n">
-        <v>1206.326500219468</v>
+        <v>1210.773564337348</v>
       </c>
       <c r="W32" t="n">
-        <v>822.5661993546371</v>
+        <v>1210.773564337348</v>
       </c>
       <c r="X32" t="n">
-        <v>822.5661993546371</v>
+        <v>1210.773564337348</v>
       </c>
       <c r="Y32" t="n">
-        <v>822.5661993546371</v>
+        <v>816.6798474179373</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>618.5472599225079</v>
+        <v>689.2944728867919</v>
       </c>
       <c r="C33" t="n">
-        <v>484.5521886714537</v>
+        <v>555.2994016357376</v>
       </c>
       <c r="D33" t="n">
-        <v>367.6550308908461</v>
+        <v>438.40224385513</v>
       </c>
       <c r="E33" t="n">
-        <v>247.1622148831741</v>
+        <v>317.909427847458</v>
       </c>
       <c r="F33" t="n">
-        <v>138.2023350656787</v>
+        <v>208.9495480299626</v>
       </c>
       <c r="G33" t="n">
-        <v>31.21222238001734</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="H33" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I33" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J33" t="n">
-        <v>31.21222238001734</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K33" t="n">
-        <v>31.21222238001734</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L33" t="n">
-        <v>372.2978437800932</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M33" t="n">
-        <v>758.5490957328078</v>
+        <v>996.52758384808</v>
       </c>
       <c r="N33" t="n">
-        <v>1144.800347685522</v>
+        <v>996.52758384808</v>
       </c>
       <c r="O33" t="n">
-        <v>1144.800347685522</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="P33" t="n">
-        <v>1531.051599638237</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q33" t="n">
-        <v>1531.051599638237</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="R33" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S33" t="n">
-        <v>1560.611119000867</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T33" t="n">
-        <v>1560.611119000867</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U33" t="n">
-        <v>1521.522929326009</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V33" t="n">
-        <v>1307.811402319043</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="W33" t="n">
-        <v>1094.578234055372</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="X33" t="n">
-        <v>918.2522521942645</v>
+        <v>988.9994651585486</v>
       </c>
       <c r="Y33" t="n">
-        <v>758.8502925580946</v>
+        <v>829.5975055223786</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1004.20002678548</v>
+        <v>363.0937393438827</v>
       </c>
       <c r="C34" t="n">
-        <v>833.1066543471966</v>
+        <v>363.0937393438827</v>
       </c>
       <c r="D34" t="n">
-        <v>673.6120096701065</v>
+        <v>363.0937393438827</v>
       </c>
       <c r="E34" t="n">
-        <v>512.7011945384261</v>
+        <v>363.0937393438827</v>
       </c>
       <c r="F34" t="n">
-        <v>348.0700686490173</v>
+        <v>198.4626134544739</v>
       </c>
       <c r="G34" t="n">
-        <v>180.8196775745607</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H34" t="n">
         <v>31.21222238001735</v>
@@ -6858,16 +6858,16 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J34" t="n">
-        <v>45.29477178522788</v>
+        <v>45.29477178522814</v>
       </c>
       <c r="K34" t="n">
-        <v>199.8470995074659</v>
+        <v>199.8470995074661</v>
       </c>
       <c r="L34" t="n">
-        <v>459.7441997875264</v>
+        <v>459.7441997875267</v>
       </c>
       <c r="M34" t="n">
-        <v>749.0082562280196</v>
+        <v>749.0082562280199</v>
       </c>
       <c r="N34" t="n">
         <v>1029.84703862227</v>
@@ -6876,34 +6876,34 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P34" t="n">
-        <v>1495.083089198356</v>
+        <v>1495.083089198357</v>
       </c>
       <c r="Q34" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R34" t="n">
-        <v>1560.611119000867</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S34" t="n">
-        <v>1560.611119000867</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="T34" t="n">
-        <v>1560.611119000867</v>
+        <v>1049.39789353288</v>
       </c>
       <c r="U34" t="n">
-        <v>1277.812971546991</v>
+        <v>829.8631102290527</v>
       </c>
       <c r="V34" t="n">
-        <v>1277.812971546991</v>
+        <v>829.8631102290527</v>
       </c>
       <c r="W34" t="n">
-        <v>1277.812971546991</v>
+        <v>550.7934457379271</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.812971546991</v>
+        <v>550.7934457379271</v>
       </c>
       <c r="Y34" t="n">
-        <v>1191.899733179524</v>
+        <v>550.7934457379271</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>772.4236851620452</v>
+        <v>853.2860050783079</v>
       </c>
       <c r="C35" t="n">
-        <v>378.3299682426343</v>
+        <v>853.2860050783079</v>
       </c>
       <c r="D35" t="n">
-        <v>378.3299682426343</v>
+        <v>853.2860050783079</v>
       </c>
       <c r="E35" t="n">
-        <v>378.3299682426343</v>
+        <v>459.1922881588969</v>
       </c>
       <c r="F35" t="n">
-        <v>31.21222238001734</v>
+        <v>65.09857123948586</v>
       </c>
       <c r="G35" t="n">
-        <v>31.21222238001734</v>
+        <v>65.09857123948586</v>
       </c>
       <c r="H35" t="n">
-        <v>31.21222238001734</v>
+        <v>65.09857123948586</v>
       </c>
       <c r="I35" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J35" t="n">
-        <v>285.3976938477716</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K35" t="n">
-        <v>671.6489458004862</v>
+        <v>80.69635634743145</v>
       </c>
       <c r="L35" t="n">
-        <v>747.5519694058729</v>
+        <v>80.69635634743145</v>
       </c>
       <c r="M35" t="n">
-        <v>747.5519694058729</v>
+        <v>80.69635634743145</v>
       </c>
       <c r="N35" t="n">
-        <v>1133.803221358588</v>
+        <v>466.9476083001462</v>
       </c>
       <c r="O35" t="n">
-        <v>1520.054473311302</v>
+        <v>853.1988602528609</v>
       </c>
       <c r="P35" t="n">
-        <v>1520.054473311302</v>
+        <v>1239.450112205576</v>
       </c>
       <c r="Q35" t="n">
-        <v>1520.054473311302</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R35" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S35" t="n">
-        <v>1560.611119000867</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T35" t="n">
-        <v>1560.611119000867</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U35" t="n">
-        <v>1560.611119000867</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="V35" t="n">
-        <v>1560.611119000867</v>
+        <v>853.2860050783079</v>
       </c>
       <c r="W35" t="n">
-        <v>1560.611119000867</v>
+        <v>853.2860050783079</v>
       </c>
       <c r="X35" t="n">
-        <v>1166.517402081456</v>
+        <v>853.2860050783079</v>
       </c>
       <c r="Y35" t="n">
-        <v>1166.517402081456</v>
+        <v>853.2860050783079</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>192.9527650369014</v>
+        <v>514.6543019295594</v>
       </c>
       <c r="C36" t="n">
-        <v>138.2023350656787</v>
+        <v>380.6592306785051</v>
       </c>
       <c r="D36" t="n">
-        <v>138.2023350656787</v>
+        <v>263.7620728978976</v>
       </c>
       <c r="E36" t="n">
-        <v>138.2023350656787</v>
+        <v>143.2692568902255</v>
       </c>
       <c r="F36" t="n">
-        <v>138.2023350656787</v>
+        <v>34.30937707273011</v>
       </c>
       <c r="G36" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H36" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I36" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J36" t="n">
-        <v>31.21222238001734</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K36" t="n">
-        <v>417.4634743327319</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L36" t="n">
-        <v>803.7147262854465</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M36" t="n">
-        <v>803.7147262854465</v>
+        <v>996.52758384808</v>
       </c>
       <c r="N36" t="n">
-        <v>1189.965978238161</v>
+        <v>996.52758384808</v>
       </c>
       <c r="O36" t="n">
-        <v>1560.611119000867</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="P36" t="n">
-        <v>1560.611119000867</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q36" t="n">
-        <v>1560.611119000867</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="R36" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S36" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T36" t="n">
-        <v>1293.279245302184</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="U36" t="n">
-        <v>1095.928434440403</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="V36" t="n">
-        <v>882.2169074334365</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="W36" t="n">
-        <v>668.9837391697653</v>
+        <v>990.6852760624232</v>
       </c>
       <c r="X36" t="n">
-        <v>492.6577573086581</v>
+        <v>814.3592942013161</v>
       </c>
       <c r="Y36" t="n">
-        <v>333.2557976724881</v>
+        <v>654.9573345651461</v>
       </c>
     </row>
     <row r="37">
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.21222238001734</v>
+        <v>693.6817564592561</v>
       </c>
       <c r="C37" t="n">
-        <v>31.21222238001734</v>
+        <v>522.5883840209726</v>
       </c>
       <c r="D37" t="n">
-        <v>31.21222238001734</v>
+        <v>363.0937393438827</v>
       </c>
       <c r="E37" t="n">
-        <v>31.21222238001734</v>
+        <v>363.0937393438827</v>
       </c>
       <c r="F37" t="n">
-        <v>31.21222238001734</v>
+        <v>198.4626134544739</v>
       </c>
       <c r="G37" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H37" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I37" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J37" t="n">
         <v>45.29477178522787</v>
       </c>
       <c r="K37" t="n">
-        <v>199.8470995074657</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L37" t="n">
-        <v>459.7441997875262</v>
+        <v>459.7441997875264</v>
       </c>
       <c r="M37" t="n">
-        <v>749.0082562280195</v>
+        <v>749.0082562280197</v>
       </c>
       <c r="N37" t="n">
         <v>1029.84703862227</v>
@@ -7113,34 +7113,34 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P37" t="n">
-        <v>1495.083089198356</v>
+        <v>1495.083089198357</v>
       </c>
       <c r="Q37" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R37" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S37" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T37" t="n">
-        <v>1517.745046531093</v>
+        <v>1321.06237997757</v>
       </c>
       <c r="U37" t="n">
-        <v>1234.946899077217</v>
+        <v>1321.06237997757</v>
       </c>
       <c r="V37" t="n">
-        <v>961.0611540167392</v>
+        <v>1321.06237997757</v>
       </c>
       <c r="W37" t="n">
-        <v>681.9914895256136</v>
+        <v>1041.992715486444</v>
       </c>
       <c r="X37" t="n">
-        <v>443.647627385297</v>
+        <v>881.3814628533005</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.9119287740617</v>
+        <v>881.3814628533005</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>596.2255133378176</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="C38" t="n">
-        <v>596.2255133378176</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D38" t="n">
-        <v>596.2255133378176</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E38" t="n">
-        <v>596.2255133378176</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F38" t="n">
-        <v>596.2255133378176</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G38" t="n">
-        <v>428.4724824352262</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H38" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I38" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J38" t="n">
-        <v>285.3976938477716</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K38" t="n">
-        <v>285.3976938477716</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="L38" t="n">
-        <v>466.9476083001459</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="M38" t="n">
-        <v>853.1988602528605</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="N38" t="n">
-        <v>1239.450112205575</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="O38" t="n">
-        <v>1239.450112205575</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P38" t="n">
-        <v>1239.450112205575</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q38" t="n">
-        <v>1560.611119000867</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R38" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S38" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T38" t="n">
-        <v>1203.123559741827</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="U38" t="n">
-        <v>946.0630680013369</v>
+        <v>1081.344143207237</v>
       </c>
       <c r="V38" t="n">
-        <v>596.2255133378176</v>
+        <v>731.5065885437173</v>
       </c>
       <c r="W38" t="n">
-        <v>596.2255133378176</v>
+        <v>347.7462876788858</v>
       </c>
       <c r="X38" t="n">
-        <v>596.2255133378176</v>
+        <v>347.7462876788858</v>
       </c>
       <c r="Y38" t="n">
-        <v>596.2255133378176</v>
+        <v>31.21222238001735</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>409.8431554771004</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="C39" t="n">
-        <v>275.8480842260461</v>
+        <v>166.9477036715389</v>
       </c>
       <c r="D39" t="n">
-        <v>158.9509264454385</v>
+        <v>151.7050383876894</v>
       </c>
       <c r="E39" t="n">
-        <v>158.9509264454385</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F39" t="n">
-        <v>158.9509264454385</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G39" t="n">
-        <v>51.96081375977717</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H39" t="n">
-        <v>51.96081375977717</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I39" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J39" t="n">
-        <v>224.0250799426506</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K39" t="n">
-        <v>224.0250799426506</v>
+        <v>401.8573631427234</v>
       </c>
       <c r="L39" t="n">
-        <v>224.0250799426506</v>
+        <v>788.1086150954382</v>
       </c>
       <c r="M39" t="n">
-        <v>408.7046310488247</v>
+        <v>788.1086150954382</v>
       </c>
       <c r="N39" t="n">
-        <v>794.9558830015393</v>
+        <v>788.1086150954382</v>
       </c>
       <c r="O39" t="n">
-        <v>1181.207134954254</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="P39" t="n">
-        <v>1181.207134954254</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q39" t="n">
-        <v>1531.051599638237</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R39" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S39" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T39" t="n">
-        <v>1510.169635742383</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="U39" t="n">
-        <v>1312.818824880602</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="V39" t="n">
-        <v>1099.107297873636</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="W39" t="n">
-        <v>885.8741296099643</v>
+        <v>776.973749055457</v>
       </c>
       <c r="X39" t="n">
-        <v>709.548147748857</v>
+        <v>600.6477671943499</v>
       </c>
       <c r="Y39" t="n">
-        <v>550.146188112687</v>
+        <v>441.2458075581799</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>855.6009473663541</v>
+        <v>693.6817564592561</v>
       </c>
       <c r="C40" t="n">
-        <v>855.6009473663541</v>
+        <v>522.5883840209726</v>
       </c>
       <c r="D40" t="n">
-        <v>789.9580555657803</v>
+        <v>363.0937393438827</v>
       </c>
       <c r="E40" t="n">
-        <v>629.0472404340999</v>
+        <v>363.0937393438827</v>
       </c>
       <c r="F40" t="n">
-        <v>464.4161145446911</v>
+        <v>198.4626134544739</v>
       </c>
       <c r="G40" t="n">
-        <v>297.1657234702345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H40" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I40" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J40" t="n">
         <v>45.29477178522787</v>
       </c>
       <c r="K40" t="n">
-        <v>199.8470995074658</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L40" t="n">
         <v>459.7441997875264</v>
@@ -7356,28 +7356,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R40" t="n">
-        <v>1560.611119000868</v>
+        <v>1530.852791724942</v>
       </c>
       <c r="S40" t="n">
-        <v>1374.219350880778</v>
+        <v>1344.461023604852</v>
       </c>
       <c r="T40" t="n">
-        <v>1134.67061185748</v>
+        <v>1344.461023604852</v>
       </c>
       <c r="U40" t="n">
-        <v>1134.67061185748</v>
+        <v>1344.461023604852</v>
       </c>
       <c r="V40" t="n">
-        <v>1134.67061185748</v>
+        <v>1344.461023604852</v>
       </c>
       <c r="W40" t="n">
-        <v>855.6009473663541</v>
+        <v>1344.461023604852</v>
       </c>
       <c r="X40" t="n">
-        <v>855.6009473663541</v>
+        <v>1106.117161464536</v>
       </c>
       <c r="Y40" t="n">
-        <v>855.6009473663541</v>
+        <v>881.3814628533005</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>772.4236851620456</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="C41" t="n">
-        <v>772.4236851620456</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D41" t="n">
-        <v>772.4236851620456</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E41" t="n">
-        <v>772.4236851620456</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F41" t="n">
-        <v>736.2144366717104</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G41" t="n">
-        <v>342.1207197522994</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H41" t="n">
         <v>31.21222238001735</v>
@@ -7411,22 +7411,22 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J41" t="n">
-        <v>285.3976938477716</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K41" t="n">
-        <v>285.3976938477716</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="L41" t="n">
-        <v>285.3976938477716</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="M41" t="n">
-        <v>671.6489458004863</v>
+        <v>40.13971065786654</v>
       </c>
       <c r="N41" t="n">
+        <v>426.3909626105813</v>
+      </c>
+      <c r="O41" t="n">
         <v>812.642214563296</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1198.893466516011</v>
       </c>
       <c r="P41" t="n">
         <v>1198.893466516011</v>
@@ -7438,25 +7438,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S41" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T41" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U41" t="n">
-        <v>1560.611119000868</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="V41" t="n">
-        <v>1560.611119000868</v>
+        <v>596.225513337818</v>
       </c>
       <c r="W41" t="n">
-        <v>1560.611119000868</v>
+        <v>212.4652124729866</v>
       </c>
       <c r="X41" t="n">
-        <v>1166.517402081457</v>
+        <v>212.4652124729866</v>
       </c>
       <c r="Y41" t="n">
-        <v>1166.517402081457</v>
+        <v>212.4652124729866</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>710.0430642665517</v>
+        <v>530.3359714847725</v>
       </c>
       <c r="C42" t="n">
-        <v>576.0479930154975</v>
+        <v>396.3409002337181</v>
       </c>
       <c r="D42" t="n">
-        <v>459.1508352348899</v>
+        <v>279.4437424531105</v>
       </c>
       <c r="E42" t="n">
-        <v>338.6580192272179</v>
+        <v>158.9509264454385</v>
       </c>
       <c r="F42" t="n">
-        <v>229.6981394097224</v>
+        <v>158.9509264454385</v>
       </c>
       <c r="G42" t="n">
-        <v>122.7080267240611</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="H42" t="n">
         <v>51.96081375977718</v>
@@ -7493,22 +7493,22 @@
         <v>224.0250799426506</v>
       </c>
       <c r="K42" t="n">
-        <v>610.2763318953653</v>
+        <v>408.7046310488249</v>
       </c>
       <c r="L42" t="n">
-        <v>996.52758384808</v>
+        <v>408.7046310488249</v>
       </c>
       <c r="M42" t="n">
-        <v>996.52758384808</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="N42" t="n">
-        <v>996.52758384808</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="O42" t="n">
-        <v>1144.800347685523</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="P42" t="n">
-        <v>1531.051599638238</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q42" t="n">
         <v>1531.051599638238</v>
@@ -7526,16 +7526,16 @@
         <v>1095.928434440403</v>
       </c>
       <c r="V42" t="n">
-        <v>1095.928434440403</v>
+        <v>882.216907433437</v>
       </c>
       <c r="W42" t="n">
-        <v>1095.928434440403</v>
+        <v>830.0409637565291</v>
       </c>
       <c r="X42" t="n">
-        <v>1009.748056538308</v>
+        <v>830.0409637565291</v>
       </c>
       <c r="Y42" t="n">
-        <v>850.3460969021384</v>
+        <v>670.6390041203591</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>854.5925715909368</v>
+        <v>577.8836579521528</v>
       </c>
       <c r="C43" t="n">
-        <v>683.4991991526533</v>
+        <v>406.7902855138693</v>
       </c>
       <c r="D43" t="n">
-        <v>524.0045544755633</v>
+        <v>247.2956408367793</v>
       </c>
       <c r="E43" t="n">
-        <v>363.0937393438827</v>
+        <v>247.2956408367793</v>
       </c>
       <c r="F43" t="n">
-        <v>198.4626134544739</v>
+        <v>82.66451494737061</v>
       </c>
       <c r="G43" t="n">
-        <v>31.21222238001734</v>
+        <v>82.66451494737061</v>
       </c>
       <c r="H43" t="n">
-        <v>31.21222238001734</v>
+        <v>82.66451494737061</v>
       </c>
       <c r="I43" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J43" t="n">
         <v>45.29477178522787</v>
       </c>
       <c r="K43" t="n">
-        <v>199.8470995074658</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L43" t="n">
         <v>459.7441997875264</v>
@@ -7602,19 +7602,19 @@
         <v>1560.611119000868</v>
       </c>
       <c r="U43" t="n">
-        <v>1560.611119000868</v>
+        <v>1277.812971546992</v>
       </c>
       <c r="V43" t="n">
-        <v>1560.611119000868</v>
+        <v>1003.927226486514</v>
       </c>
       <c r="W43" t="n">
-        <v>1505.371838736533</v>
+        <v>1003.927226486514</v>
       </c>
       <c r="X43" t="n">
-        <v>1267.027976596216</v>
+        <v>765.5833643461972</v>
       </c>
       <c r="Y43" t="n">
-        <v>1042.292277984981</v>
+        <v>765.5833643461972</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>782.7571012166252</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="C44" t="n">
-        <v>736.2144366717104</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="D44" t="n">
         <v>342.1207197522994</v>
@@ -7651,25 +7651,25 @@
         <v>285.3976938477716</v>
       </c>
       <c r="K44" t="n">
-        <v>285.3976938477716</v>
+        <v>466.9476083001462</v>
       </c>
       <c r="L44" t="n">
-        <v>285.3976938477716</v>
+        <v>466.9476083001462</v>
       </c>
       <c r="M44" t="n">
-        <v>671.6489458004863</v>
+        <v>466.9476083001462</v>
       </c>
       <c r="N44" t="n">
-        <v>671.6489458004863</v>
+        <v>466.9476083001462</v>
       </c>
       <c r="O44" t="n">
-        <v>812.642214563296</v>
+        <v>853.1988602528609</v>
       </c>
       <c r="P44" t="n">
-        <v>1198.893466516011</v>
+        <v>1239.450112205576</v>
       </c>
       <c r="Q44" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R44" t="n">
         <v>1560.611119000868</v>
@@ -7678,22 +7678,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T44" t="n">
-        <v>1560.611119000868</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="U44" t="n">
-        <v>1560.611119000868</v>
+        <v>1081.344143207237</v>
       </c>
       <c r="V44" t="n">
-        <v>1560.611119000868</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="W44" t="n">
-        <v>1176.850818136036</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="X44" t="n">
-        <v>1176.850818136036</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="Y44" t="n">
-        <v>782.7571012166252</v>
+        <v>342.1207197522994</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>338.6580192272179</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="C45" t="n">
-        <v>338.6580192272179</v>
+        <v>166.9477036715389</v>
       </c>
       <c r="D45" t="n">
-        <v>338.6580192272179</v>
+        <v>151.7050383876894</v>
       </c>
       <c r="E45" t="n">
-        <v>338.6580192272179</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F45" t="n">
-        <v>229.6981394097224</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G45" t="n">
-        <v>122.7080267240611</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H45" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I45" t="n">
         <v>31.21222238001735</v>
@@ -7733,19 +7733,19 @@
         <v>610.2763318953653</v>
       </c>
       <c r="L45" t="n">
-        <v>610.2763318953653</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M45" t="n">
-        <v>610.2763318953653</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="N45" t="n">
-        <v>996.52758384808</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="O45" t="n">
-        <v>996.52758384808</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="P45" t="n">
-        <v>1210.766654316884</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q45" t="n">
         <v>1560.611119000868</v>
@@ -7763,16 +7763,16 @@
         <v>1203.918444326094</v>
       </c>
       <c r="V45" t="n">
-        <v>1027.922161623753</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="W45" t="n">
-        <v>814.6889933600817</v>
+        <v>776.973749055457</v>
       </c>
       <c r="X45" t="n">
-        <v>638.3630114989745</v>
+        <v>600.6477671943499</v>
       </c>
       <c r="Y45" t="n">
-        <v>478.9610518628045</v>
+        <v>441.2458075581799</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>687.89820081502</v>
+        <v>687.3421805164801</v>
       </c>
       <c r="C46" t="n">
-        <v>524.0045544755633</v>
+        <v>516.2488080781966</v>
       </c>
       <c r="D46" t="n">
-        <v>524.0045544755633</v>
+        <v>356.7541634011066</v>
       </c>
       <c r="E46" t="n">
-        <v>363.0937393438827</v>
+        <v>195.8433482694261</v>
       </c>
       <c r="F46" t="n">
-        <v>198.4626134544739</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G46" t="n">
         <v>31.21222238001735</v>
@@ -7809,7 +7809,7 @@
         <v>45.29477178522787</v>
       </c>
       <c r="K46" t="n">
-        <v>199.8470995074658</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L46" t="n">
         <v>459.7441997875264</v>
@@ -7830,28 +7830,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R46" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S46" t="n">
-        <v>1374.219350880778</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="T46" t="n">
-        <v>1374.219350880778</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="U46" t="n">
-        <v>1374.219350880778</v>
+        <v>1150.421741268032</v>
       </c>
       <c r="V46" t="n">
-        <v>1100.3336058203</v>
+        <v>1150.421741268032</v>
       </c>
       <c r="W46" t="n">
-        <v>1100.3336058203</v>
+        <v>1150.421741268032</v>
       </c>
       <c r="X46" t="n">
-        <v>1100.3336058203</v>
+        <v>912.0778791277154</v>
       </c>
       <c r="Y46" t="n">
-        <v>875.5979072090644</v>
+        <v>687.3421805164801</v>
       </c>
     </row>
   </sheetData>
@@ -9163,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>89.13638967321712</v>
+        <v>165.8061104867393</v>
       </c>
       <c r="L17" t="n">
-        <v>95.48539806284482</v>
+        <v>485.6381778130617</v>
       </c>
       <c r="M17" t="n">
-        <v>93.29022445704545</v>
+        <v>483.4430042072623</v>
       </c>
       <c r="N17" t="n">
-        <v>92.91229075661933</v>
+        <v>483.0650705068362</v>
       </c>
       <c r="O17" t="n">
         <v>93.18977562578313</v>
@@ -9187,7 +9187,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R17" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,19 +9242,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M18" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>53.19339339374999</v>
+        <v>239.7383945110979</v>
       </c>
       <c r="O18" t="n">
         <v>57.751479</v>
@@ -9263,10 +9263,10 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>51.43314568295542</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K19" t="n">
-        <v>52.25036955906683</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L19" t="n">
-        <v>54.62829389390151</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M19" t="n">
-        <v>56.26494249878004</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N19" t="n">
-        <v>51.71264550841944</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O19" t="n">
-        <v>56.07489807299633</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P19" t="n">
-        <v>55.77984163990478</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q19" t="n">
-        <v>61.35952565992557</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
-        <v>98.15405460033752</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L20" t="n">
         <v>485.6381778130617</v>
       </c>
       <c r="M20" t="n">
-        <v>93.29022445704545</v>
+        <v>169.9599452705675</v>
       </c>
       <c r="N20" t="n">
-        <v>483.0650705068362</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O20" t="n">
-        <v>483.342555376</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P20" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q20" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R20" t="n">
         <v>128.2784515920617</v>
@@ -9488,13 +9488,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>244.1092848557653</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>443.3461731439669</v>
+        <v>239.7383945110979</v>
       </c>
       <c r="O21" t="n">
-        <v>57.751479</v>
+        <v>447.9042587502169</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9640,19 +9640,19 @@
         <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
-        <v>89.13638967321712</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L23" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M23" t="n">
-        <v>483.4430042072623</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N23" t="n">
-        <v>92.91229075661933</v>
+        <v>235.3297339513765</v>
       </c>
       <c r="O23" t="n">
-        <v>235.6072188205403</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P23" t="n">
         <v>483.8021430311011</v>
@@ -9716,28 +9716,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L24" t="n">
         <v>446.2673035610659</v>
       </c>
       <c r="M24" t="n">
-        <v>447.7170634886343</v>
+        <v>244.1092848557653</v>
       </c>
       <c r="N24" t="n">
-        <v>397.7243241008975</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
         <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>444.4124147530206</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>88.85829947169823</v>
@@ -9877,13 +9877,13 @@
         <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
-        <v>479.289169423434</v>
+        <v>231.5538328679743</v>
       </c>
       <c r="L26" t="n">
         <v>485.6381778130617</v>
       </c>
       <c r="M26" t="n">
-        <v>235.7076676518025</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N26" t="n">
         <v>92.91229075661933</v>
@@ -9892,7 +9892,7 @@
         <v>93.18977562578313</v>
       </c>
       <c r="P26" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q26" t="n">
         <v>414.4388617681339</v>
@@ -9953,28 +9953,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>205.8849923335186</v>
       </c>
       <c r="M27" t="n">
-        <v>447.7170634886343</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>434.4988566955759</v>
+        <v>443.3461731439669</v>
       </c>
       <c r="O27" t="n">
         <v>447.9042587502169</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>444.4124147530206</v>
       </c>
       <c r="Q27" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
         <v>88.85829947169823</v>
@@ -10114,16 +10114,16 @@
         <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
-        <v>89.13638967321712</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L29" t="n">
-        <v>485.6381778130616</v>
+        <v>485.6381778130617</v>
       </c>
       <c r="M29" t="n">
-        <v>235.7076676518024</v>
+        <v>483.4430042072623</v>
       </c>
       <c r="N29" t="n">
-        <v>483.0650705068361</v>
+        <v>169.5820115701414</v>
       </c>
       <c r="O29" t="n">
         <v>93.18977562578313</v>
@@ -10132,7 +10132,7 @@
         <v>93.64936328088416</v>
       </c>
       <c r="Q29" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R29" t="n">
         <v>128.2784515920617</v>
@@ -10190,28 +10190,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M30" t="n">
-        <v>447.7170634886342</v>
+        <v>447.7170634886343</v>
       </c>
       <c r="N30" t="n">
-        <v>443.3461731439668</v>
+        <v>443.3461731439669</v>
       </c>
       <c r="O30" t="n">
-        <v>78.76226291790175</v>
+        <v>237.3800478889625</v>
       </c>
       <c r="P30" t="n">
-        <v>444.4124147530205</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10287,7 +10287,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P31" t="n">
-        <v>263.5328115890077</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q31" t="n">
         <v>127.5494547533709</v>
@@ -10348,25 +10348,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K32" t="n">
-        <v>479.2891694234339</v>
+        <v>422.5591119693194</v>
       </c>
       <c r="L32" t="n">
-        <v>485.6381778130616</v>
+        <v>485.6381778130617</v>
       </c>
       <c r="M32" t="n">
-        <v>169.9599452705675</v>
+        <v>483.4430042072623</v>
       </c>
       <c r="N32" t="n">
-        <v>483.0650705068361</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O32" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P32" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q32" t="n">
         <v>90.03380439915205</v>
@@ -10427,28 +10427,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L33" t="n">
-        <v>400.6454545179964</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M33" t="n">
-        <v>447.7170634886342</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>443.3461731439668</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>57.751479</v>
+        <v>244.2964801173478</v>
       </c>
       <c r="P33" t="n">
-        <v>444.4124147530205</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>88.85829947169823</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>65.65794306195595</v>
+        <v>65.65794306195622</v>
       </c>
       <c r="K34" t="n">
         <v>208.3638319047618</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K35" t="n">
-        <v>479.2891694234339</v>
+        <v>139.1203633776758</v>
       </c>
       <c r="L35" t="n">
-        <v>172.1551188763667</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M35" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N35" t="n">
-        <v>483.0650705068361</v>
+        <v>483.0650705068362</v>
       </c>
       <c r="O35" t="n">
-        <v>483.3425553759999</v>
+        <v>483.342555376</v>
       </c>
       <c r="P35" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q35" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>445.9785625348322</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L36" t="n">
-        <v>446.2673035610658</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M36" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>443.3461731439668</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>432.1405100734404</v>
+        <v>244.2964801173478</v>
       </c>
       <c r="P36" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10746,7 +10746,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K37" t="n">
-        <v>208.3638319047616</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L37" t="n">
         <v>317.1506174091142</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K38" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L38" t="n">
-        <v>278.8691500349401</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M38" t="n">
-        <v>483.4430042072622</v>
+        <v>483.4430042072623</v>
       </c>
       <c r="N38" t="n">
-        <v>483.0650705068361</v>
+        <v>101.9299556837397</v>
       </c>
       <c r="O38" t="n">
-        <v>93.18977562578313</v>
+        <v>483.342555376</v>
       </c>
       <c r="P38" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q38" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>430.2148138580559</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M39" t="n">
-        <v>244.109284855765</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>443.3461731439668</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>447.9042587502168</v>
+        <v>447.9042587502169</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>444.4124147530206</v>
       </c>
       <c r="Q39" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K41" t="n">
         <v>89.13638967321712</v>
@@ -11068,16 +11068,16 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M41" t="n">
-        <v>483.4430042072623</v>
+        <v>102.3078893841658</v>
       </c>
       <c r="N41" t="n">
-        <v>235.3297339513765</v>
+        <v>483.0650705068362</v>
       </c>
       <c r="O41" t="n">
         <v>483.342555376</v>
       </c>
       <c r="P41" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q41" t="n">
         <v>414.4388617681339</v>
@@ -11141,25 +11141,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>445.9785625348323</v>
+        <v>242.3707839019632</v>
       </c>
       <c r="L42" t="n">
-        <v>446.2673035610659</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>57.56428373841742</v>
+        <v>447.7170634886343</v>
       </c>
       <c r="N42" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>207.5219475226696</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
         <v>444.4124147530206</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>88.85829947169823</v>
@@ -11299,19 +11299,19 @@
         <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>272.5201416453126</v>
       </c>
       <c r="L44" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M44" t="n">
-        <v>483.4430042072623</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N44" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O44" t="n">
-        <v>235.6072188205403</v>
+        <v>483.342555376</v>
       </c>
       <c r="P44" t="n">
         <v>483.8021430311011</v>
@@ -11320,7 +11320,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11381,22 +11381,22 @@
         <v>445.9785625348323</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>237.1928526273799</v>
       </c>
       <c r="N45" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
         <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>270.6627364864445</v>
+        <v>444.4124147530206</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -23746,10 +23746,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>14.48822151587922</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>85.48824505609757</v>
@@ -23785,16 +23785,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>38.24428838601216</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -23810,19 +23810,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>105.9202115588047</v>
@@ -23861,25 +23861,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>195.3773027531635</v>
       </c>
       <c r="V18" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>211.1008365810345</v>
+        <v>120.0410356247818</v>
       </c>
       <c r="X18" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23904,13 +23904,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>94.10342832033081</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.9186037595719</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>10.26651085765315</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G20" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -24022,19 +24022,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>48.47437028004609</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>6.484184102520089</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
         <v>396.9273063213908</v>
@@ -24047,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>21.80028898018708</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24101,7 +24101,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24113,10 +24113,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>157.8079400398083</v>
+        <v>58.84008040539725</v>
       </c>
     </row>
     <row r="22">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,19 +24180,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884234</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24208,16 +24208,16 @@
         <v>15.96618811762767</v>
       </c>
       <c r="C23" t="n">
-        <v>15.87056502964566</v>
+        <v>62.37677637587154</v>
       </c>
       <c r="D23" t="n">
-        <v>311.262609026964</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>20.04403357805535</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G23" t="n">
         <v>404.6410012660961</v>
@@ -24262,7 +24262,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -24274,7 +24274,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>6.774526571173908</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24284,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>75.85310805256714</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24302,7 +24302,7 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H24" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>20.54110546596223</v>
@@ -24341,13 +24341,13 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>67.44713284471729</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>14.54965511317593</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>45.17092955046746</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>15.96618811762767</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>15.87056502964566</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
@@ -24457,10 +24457,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>397.1035300849554</v>
+        <v>14.48822151587922</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -24499,13 +24499,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>164.5990482902866</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
@@ -24527,7 +24527,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -24536,13 +24536,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24572,25 +24572,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>41.88221213533532</v>
       </c>
       <c r="T27" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>142.5965393255948</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="28">
@@ -24606,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>62.35638357402014</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.1113806425979</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>57.5540840023842</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>15.96618811762767</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>10.26651085765315</v>
       </c>
       <c r="E29" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G29" t="n">
         <v>404.6410012660961</v>
@@ -24733,19 +24733,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>217.1965036606979</v>
+        <v>186.9186599025861</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -24761,7 +24761,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>31.34243305653172</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -24776,10 +24776,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I30" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24809,19 +24809,19 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>195.3773027531635</v>
+        <v>19.20440708478091</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24849,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>115.1825854367171</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>77.8193754273468</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>221.5920803845235</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24919,25 +24919,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>18.56317574253876</v>
       </c>
       <c r="D32" t="n">
-        <v>10.26651085765326</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G32" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>123.7325334421101</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>6.774526571173908</v>
       </c>
     </row>
     <row r="33">
@@ -25013,7 +25013,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>20.54110546596223</v>
@@ -25046,22 +25046,22 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>156.6799949750539</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>68.70304245346006</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25077,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
         <v>115.1825854367171</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>62.63073050854848</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>137.4342356413307</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>15.96618811762778</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>15.87056502964577</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>20.04403357805535</v>
       </c>
       <c r="F35" t="n">
-        <v>73.17353952185852</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G35" t="n">
         <v>404.6410012660961</v>
@@ -25174,7 +25174,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>51.94075968522375</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>6.484184102520203</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -25235,19 +25235,19 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>78.45219486703319</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>102.8540284130191</v>
       </c>
       <c r="H36" t="n">
         <v>70.03974083464111</v>
@@ -25283,7 +25283,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25292,7 +25292,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -25314,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.1113806425979</v>
@@ -25365,22 +25365,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>194.7158398879886</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>76.95528341210138</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25405,13 +25405,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>238.5655006725306</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25453,13 +25453,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>83.55858167551105</v>
       </c>
     </row>
     <row r="39">
@@ -25475,22 +25475,22 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>100.6379475717904</v>
       </c>
       <c r="E39" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H39" t="n">
         <v>70.03974083464111</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25523,7 +25523,7 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T39" t="n">
-        <v>107.8113767489628</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>92.91323534775101</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>54.95924713818813</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
         <v>279.9701659793371</v>
@@ -25611,13 +25611,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>15.96618811762767</v>
+        <v>226.678507675805</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
@@ -25639,13 +25639,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>380.9729519204175</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>14.48822151587922</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>6.484184102520089</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -25718,13 +25718,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25766,13 +25766,13 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>211.1008365810345</v>
+        <v>159.4466523408957</v>
       </c>
       <c r="X42" t="n">
-        <v>89.24414791942223</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>64.2448157950374</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,19 +25842,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>221.5920803845231</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25867,10 +25867,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>359.9461068803969</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>10.26651085765315</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -25918,22 +25918,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>4.660769646713163</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>6.484184102520089</v>
       </c>
       <c r="Y44" t="n">
-        <v>6.774526571173908</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -25946,25 +25946,25 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>115.7281862028015</v>
+        <v>100.6379475717904</v>
       </c>
       <c r="E45" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26003,7 +26003,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>37.33809186157828</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>7.127728837838504</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,16 +26079,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>142.8305236040731</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>150357.0455461972</v>
+        <v>493223.4061259292</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>493223.4061259293</v>
+        <v>493223.406125929</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>493223.4061259292</v>
+        <v>493223.4061259293</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>493223.4061259292</v>
+        <v>493223.4061259293</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>493223.406125929</v>
+        <v>493223.4061259292</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>493223.406125929</v>
+        <v>493223.4061259292</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>493223.4061259292</v>
+        <v>493223.4061259291</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>493223.4061259292</v>
+        <v>493223.4061259293</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>24251.1363784189</v>
+      </c>
+      <c r="C2" t="n">
         <v>24251.13637841891</v>
       </c>
-      <c r="C2" t="n">
-        <v>24251.1363784189</v>
-      </c>
       <c r="D2" t="n">
-        <v>24251.1363784189</v>
+        <v>24251.13637841891</v>
       </c>
       <c r="E2" t="n">
-        <v>24251.1363784189</v>
+        <v>24251.13637841891</v>
       </c>
       <c r="F2" t="n">
         <v>24251.1363784189</v>
       </c>
       <c r="G2" t="n">
-        <v>24251.13637841889</v>
+        <v>79515.96550781335</v>
       </c>
       <c r="H2" t="n">
+        <v>79515.96550781334</v>
+      </c>
+      <c r="I2" t="n">
+        <v>79515.96550781334</v>
+      </c>
+      <c r="J2" t="n">
         <v>79515.96550781335</v>
-      </c>
-      <c r="I2" t="n">
-        <v>79515.96550781335</v>
-      </c>
-      <c r="J2" t="n">
-        <v>79515.96550781334</v>
       </c>
       <c r="K2" t="n">
         <v>79515.96550781332</v>
@@ -26346,16 +26346,16 @@
         <v>79515.96550781331</v>
       </c>
       <c r="M2" t="n">
-        <v>79515.96550781329</v>
+        <v>79515.96550781334</v>
       </c>
       <c r="N2" t="n">
+        <v>79515.96550781332</v>
+      </c>
+      <c r="O2" t="n">
+        <v>79515.96550781338</v>
+      </c>
+      <c r="P2" t="n">
         <v>79515.96550781334</v>
-      </c>
-      <c r="O2" t="n">
-        <v>79515.96550781332</v>
-      </c>
-      <c r="P2" t="n">
-        <v>79515.96550781332</v>
       </c>
     </row>
     <row r="3">
@@ -26380,10 +26380,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>106935.0246378382</v>
       </c>
       <c r="H3" t="n">
-        <v>105266.7313516263</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26404,10 +26404,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>93890.65659966946</v>
       </c>
       <c r="P3" t="n">
-        <v>92221.97316067776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26432,7 +26432,7 @@
         <v>4850.227275683779</v>
       </c>
       <c r="G4" t="n">
-        <v>4850.227275683779</v>
+        <v>16465.93465315062</v>
       </c>
       <c r="H4" t="n">
         <v>16465.93465315062</v>
@@ -26450,7 +26450,7 @@
         <v>16465.93465315062</v>
       </c>
       <c r="M4" t="n">
-        <v>16465.93465315061</v>
+        <v>16465.93465315062</v>
       </c>
       <c r="N4" t="n">
         <v>16465.93465315062</v>
@@ -26484,7 +26484,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>23721.28900881319</v>
       </c>
       <c r="H5" t="n">
         <v>23721.28900881319</v>
@@ -26496,16 +26496,16 @@
         <v>23721.28900881319</v>
       </c>
       <c r="K5" t="n">
-        <v>23721.28900881318</v>
+        <v>23721.28900881319</v>
       </c>
       <c r="L5" t="n">
-        <v>23721.28900881318</v>
+        <v>23721.28900881319</v>
       </c>
       <c r="M5" t="n">
-        <v>23721.28900881318</v>
+        <v>23721.28900881319</v>
       </c>
       <c r="N5" t="n">
-        <v>23721.28900881318</v>
+        <v>23721.28900881319</v>
       </c>
       <c r="O5" t="n">
         <v>23721.28900881319</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-14226.69089726487</v>
+        <v>-15613.00346380525</v>
       </c>
       <c r="C6" t="n">
-        <v>-14226.69089726487</v>
+        <v>-15613.00346380525</v>
       </c>
       <c r="D6" t="n">
-        <v>-14226.69089726488</v>
+        <v>-15613.00346380525</v>
       </c>
       <c r="E6" t="n">
-        <v>19400.90910273512</v>
+        <v>18014.59653619475</v>
       </c>
       <c r="F6" t="n">
-        <v>19400.90910273512</v>
+        <v>18014.59653619475</v>
       </c>
       <c r="G6" t="n">
-        <v>19400.90910273512</v>
+        <v>-68439.9470672351</v>
       </c>
       <c r="H6" t="n">
-        <v>-65937.98950577673</v>
+        <v>38495.0775706031</v>
       </c>
       <c r="I6" t="n">
-        <v>39328.74184584955</v>
+        <v>38495.07757060308</v>
       </c>
       <c r="J6" t="n">
-        <v>39328.74184584954</v>
+        <v>38495.0775706031</v>
       </c>
       <c r="K6" t="n">
-        <v>39328.74184584952</v>
+        <v>38495.07757060308</v>
       </c>
       <c r="L6" t="n">
-        <v>39328.74184584951</v>
+        <v>38495.07757060307</v>
       </c>
       <c r="M6" t="n">
-        <v>39328.7418458495</v>
+        <v>38495.0775706031</v>
       </c>
       <c r="N6" t="n">
-        <v>39328.74184584954</v>
+        <v>38495.07757060307</v>
       </c>
       <c r="O6" t="n">
-        <v>39328.74184584952</v>
+        <v>-55395.57902906632</v>
       </c>
       <c r="P6" t="n">
-        <v>-52893.23131482824</v>
+        <v>38495.0775706031</v>
       </c>
     </row>
   </sheetData>
@@ -26804,7 +26804,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="H4" t="n">
         <v>390.1527797502169</v>
@@ -26816,16 +26816,16 @@
         <v>390.1527797502169</v>
       </c>
       <c r="K4" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L4" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M4" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N4" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="O4" t="n">
         <v>390.1527797502169</v>
@@ -27026,34 +27026,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
       <c r="P4" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27272,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="P4" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>76.66972081352215</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>186.5450011173479</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35983,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>14.22479737900053</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>262.5223235152127</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>292.1859155964578</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>283.67553777197</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>262.1824346732062</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>207.7529699491034</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>66.18992909344529</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
-        <v>9.017664927120396</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L20" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>76.66972081352203</v>
       </c>
       <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="O20" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
       <c r="Q20" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>40.9663087773382</v>
@@ -36208,13 +36208,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
         <v>186.5450011173479</v>
       </c>
-      <c r="N21" t="n">
+      <c r="O21" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36360,19 +36360,19 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>142.4174431947572</v>
       </c>
       <c r="O23" t="n">
-        <v>142.4174431947572</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>390.1527797502169</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L24" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="M24" t="n">
-        <v>390.1527797502169</v>
+        <v>186.5450011173479</v>
       </c>
       <c r="N24" t="n">
-        <v>344.5309307071475</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>29.85810036629282</v>
@@ -36597,13 +36597,13 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K26" t="n">
-        <v>390.1527797502169</v>
+        <v>142.4174431947572</v>
       </c>
       <c r="L26" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="M26" t="n">
-        <v>142.4174431947571</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -36612,7 +36612,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q26" t="n">
         <v>324.4050573689818</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>149.7704685226695</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="N27" t="n">
-        <v>381.3054633018259</v>
       </c>
       <c r="O27" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q27" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>29.85810036629282</v>
@@ -36834,16 +36834,16 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L29" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M29" t="n">
-        <v>142.417443194757</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N29" t="n">
-        <v>390.1527797502168</v>
+        <v>76.66972081352203</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>40.9663087773382</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M30" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N30" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="O30" t="n">
-        <v>21.01078391790176</v>
+        <v>179.6285688889625</v>
       </c>
       <c r="P30" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37007,7 +37007,7 @@
         <v>262.1824346732062</v>
       </c>
       <c r="P31" t="n">
-        <v>207.752969949103</v>
+        <v>207.7529699491034</v>
       </c>
       <c r="Q31" t="n">
         <v>66.18992909344529</v>
@@ -37068,25 +37068,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>390.1527797502168</v>
+        <v>333.4227222961022</v>
       </c>
       <c r="L32" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M32" t="n">
-        <v>76.66972081352203</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N32" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L33" t="n">
-        <v>344.5309307071473</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M33" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>186.5450011173479</v>
       </c>
       <c r="P33" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
         <v>29.85810036629282</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>14.22479737900053</v>
+        <v>14.22479737900079</v>
       </c>
       <c r="K34" t="n">
         <v>156.1134623456949</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>390.1527797502168</v>
+        <v>49.98397370445868</v>
       </c>
       <c r="L35" t="n">
-        <v>76.66972081352191</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="O35" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L36" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>374.3890310734404</v>
+        <v>186.5450011173479</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>14.22479737900053</v>
       </c>
       <c r="K37" t="n">
-        <v>156.1134623456948</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L37" t="n">
         <v>262.5223235152127</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>183.3837519720953</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N38" t="n">
-        <v>390.1527797502168</v>
+        <v>9.017664927120396</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q38" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>374.3890310734405</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M39" t="n">
-        <v>186.5450011173476</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q39" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -37788,16 +37788,16 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
+        <v>9.017664927120396</v>
+      </c>
+      <c r="N41" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="N41" t="n">
-        <v>142.4174431947572</v>
       </c>
       <c r="O41" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q41" t="n">
         <v>324.4050573689818</v>
@@ -37861,25 +37861,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
+        <v>186.5450011173478</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="L42" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>149.7704685226696</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
         <v>29.85810036629282</v>
@@ -38019,19 +38019,19 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>183.3837519720955</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>142.4174431947572</v>
       </c>
       <c r="P44" t="n">
         <v>390.1527797502169</v>
@@ -38040,7 +38040,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,22 +38101,22 @@
         <v>390.1527797502169</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>179.6285688889625</v>
       </c>
       <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>216.4031014836408</v>
-      </c>
       <c r="Q45" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
